--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -575,7 +575,7 @@
         <v>45785</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45713</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>45343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45824</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44574.756875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44546</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44458</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>45896.59030092593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45155</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44516</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45734.69969907407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44823</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45783.45811342593</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44256</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45156</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>45825</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>45848</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45299</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44250</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44874</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>44631</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45415.32003472222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>45565.58633101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         <v>46029.6153125</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>45565.47502314814</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4022,7 +4022,7 @@
         <v>44467.859375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>44609</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44478</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>44935.61596064815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45662.71215277778</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>45274</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>45938</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
         <v>44414</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>45323.8091087963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>45979.45349537037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>45982</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>45982</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>46029.61020833333</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>46048.42365740741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>45156</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         <v>45666.70653935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>45727.34368055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45758.51744212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>45323</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         <v>44292</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
         <v>44418</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44582.54748842592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>44434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         <v>44641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5965,7 +5965,7 @@
         <v>44539</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         <v>44826</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6079,7 @@
         <v>44417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
         <v>44273</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>44238</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>44292</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
         <v>44479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>44473.54983796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44546</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>44467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>44827</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44573.31362268519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44273.7997337963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44342</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         <v>44467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7006,7 +7006,7 @@
         <v>44789</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7063,7 +7063,7 @@
         <v>44789</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>44782</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44851</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>44831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>44433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44586</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>44729.58247685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44434</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44467</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>44279.87453703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>44280.25524305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>44305</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>44879.81780092593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44439</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>44552</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44573.321875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44292</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44539</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44838.32571759259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44420</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44789</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44439</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         <v>44627</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44706.67206018518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         <v>44342.9053125</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         <v>44454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         <v>44789</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44278</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44830</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44574.765</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>44767.65296296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>44449</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44445.64984953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>44735</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>44683.48711805556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>44724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         <v>44784.63019675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         <v>44256</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         <v>44368.86965277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         <v>44295.73100694444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44732.62368055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44860</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>44879.82269675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44528</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44514.53685185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44545.25053240741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44795</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44729.58146990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>44325.87206018518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
         <v>44760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
         <v>44424</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10662,7 +10662,7 @@
         <v>44778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44292</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44888</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>45362.50371527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>44967</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>45072.60712962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>44831.31862268518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>44973</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         <v>44991</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11242,7 +11242,7 @@
         <v>44579</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>45548.50846064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11356,7 +11356,7 @@
         <v>44847</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         <v>44895.30123842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         <v>44942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         <v>44949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>45440.66633101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11703,7 +11703,7 @@
         <v>45761.67010416667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11760,7 +11760,7 @@
         <v>44745</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44327</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44621</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44841</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>45222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45114</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>45077.77979166667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>44516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44742</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>45036.49065972222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44516</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44806</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>45167</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>45665.54818287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12702,7 @@
         <v>45348.42409722223</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         <v>44777.62895833333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12816,7 @@
         <v>45113.48548611111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>45301</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>45665.5291087963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>45089</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>45534.55334490741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13163,7 +13163,7 @@
         <v>45664.34681712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13220,7 +13220,7 @@
         <v>45267.36506944444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
         <v>44479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13334,7 +13334,7 @@
         <v>45072.59619212963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13396,7 +13396,7 @@
         <v>44770</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13453,7 +13453,7 @@
         <v>45800.68248842593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13510,7 +13510,7 @@
         <v>45799.86152777778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         <v>45804.57940972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13629,7 +13629,7 @@
         <v>44607</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>44410</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13743,7 +13743,7 @@
         <v>45362.55030092593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>45180</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45727.54421296297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         <v>44897.43328703703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>45888.32987268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14038,7 +14038,7 @@
         <v>45110</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>45888.33875</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45475</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14214,7 +14214,7 @@
         <v>45475</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>45664.38144675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14328,7 +14328,7 @@
         <v>45323</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>45813.31575231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>45224</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45817.62875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>45888</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>45824</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44622.48778935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45895.33560185185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45740.56796296296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45896.58643518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>45187</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>45229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>45896.58768518519</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>45896.58465277778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45896.58913194444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>45898</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45898.28616898148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45898.29173611111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45817.31120370371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45224</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45713.79457175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45224.48658564815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45727.41440972222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45566.50620370371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>45229</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15798,7 +15798,7 @@
         <v>45824.61387731481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45229</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15912,7 +15912,7 @@
         <v>45433</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>45825</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>45908.56519675926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>45122.39195601852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>45912</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16254,7 +16254,7 @@
         <v>45827</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16311,7 +16311,7 @@
         <v>45827</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         <v>45047</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45665.53457175926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45916.56863425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45917.42744212963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>45916.46465277778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>45259.64954861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>45259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16772,7 +16772,7 @@
         <v>45916.57045138889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
         <v>45831</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>45835</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16943,7 +16943,7 @@
         <v>45835</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>45183.87577546296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>45835</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>44964</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17171,7 +17171,7 @@
         <v>44767</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>45923.58244212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17285,7 +17285,7 @@
         <v>45923.59025462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>45833.43495370371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17404,7 +17404,7 @@
         <v>45833.43892361111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>45833.4369212963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45833.44028935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>45923.89001157408</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>45923.89930555555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>45924.34709490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>45923.89409722222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45926.68689814815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17937,7 +17937,7 @@
         <v>44459</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>45926.67751157407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44721</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45837.48210648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45932.59591435185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18222,7 +18222,7 @@
         <v>45334.32820601852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18279,7 +18279,7 @@
         <v>45058</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44767.63790509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45358.46060185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45323</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45217</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>45840.70689814815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>45937.49260416667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>45939.36716435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>45072</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>45938</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>45943.338125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>45608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19097,7 +19097,7 @@
         <v>44937</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19154,7 +19154,7 @@
         <v>45727.331875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
         <v>45839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19268,7 +19268,7 @@
         <v>45736.60052083333</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19325,7 +19325,7 @@
         <v>45205</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         <v>44876</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>45077.54380787037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>45343.80733796296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45938</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45646.60424768519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45944.56730324074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>44342</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45944.32471064815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45946.60359953704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45946.41390046296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20024,7 +20024,7 @@
         <v>45946.55326388889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20086,7 +20086,7 @@
         <v>45947.30487268518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20143,7 +20143,7 @@
         <v>44371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45951.61362268519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20257,7 +20257,7 @@
         <v>45951.61917824074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45951.60975694445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20371,7 +20371,7 @@
         <v>45665.3637962963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20428,7 +20428,7 @@
         <v>45848</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20485,7 +20485,7 @@
         <v>45707.28776620371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>44988.56204861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45695.58439814814</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>44929.83774305556</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45169.5819675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20775,7 +20775,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20837,7 +20837,7 @@
         <v>44236</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20894,7 +20894,7 @@
         <v>45170.43859953704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
         <v>45954.33555555555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45665.53950231482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45957.43980324074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45685.61706018518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>44812.23584490741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21303,7 +21303,7 @@
         <v>45104</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21360,7 +21360,7 @@
         <v>45104</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>45958.59449074074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>45118</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21531,7 +21531,7 @@
         <v>44833.62520833333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45877</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>45168</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21707,7 +21707,7 @@
         <v>45877</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>45958.59222222222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45022</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21878,7 +21878,7 @@
         <v>45959.34399305555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21935,7 +21935,7 @@
         <v>45881.60783564814</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21992,7 +21992,7 @@
         <v>45477</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22049,7 +22049,7 @@
         <v>44938.39666666667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22106,7 +22106,7 @@
         <v>45713.68298611111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22163,7 +22163,7 @@
         <v>44294</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22220,7 +22220,7 @@
         <v>44791</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44938.46847222222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45975.56467592593</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22396,7 +22396,7 @@
         <v>45229</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22453,7 +22453,7 @@
         <v>44988.64733796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>45296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22567,7 +22567,7 @@
         <v>45384.68508101852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44586</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>45982.56547453703</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>45176.51664351852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>45982</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>45740.53533564815</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>45415.31837962963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45982</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45118</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45607.36407407407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23142,7 +23142,7 @@
         <v>45607.36740740741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>46029.60304398148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45607.37271990741</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45187</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         <v>45986</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>44411</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23494,7 +23494,7 @@
         <v>46029.59616898148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23551,7 +23551,7 @@
         <v>45415.32329861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44851</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44777</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44777</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>45217</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>45047</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45758.50152777778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>45204</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44565.64885416667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24064,7 +24064,7 @@
         <v>44545</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
         <v>45664.36682870371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24178,7 +24178,7 @@
         <v>46034</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>46034.33706018519</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24349,7 +24349,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24406,7 +24406,7 @@
         <v>46035.40722222222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24463,7 +24463,7 @@
         <v>46035.44307870371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>46035.45820601852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>45308.76549768518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>45734.62297453704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>46035.6759375</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44938</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24805,7 +24805,7 @@
         <v>45761</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24862,7 +24862,7 @@
         <v>45040.55646990741</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24919,7 +24919,7 @@
         <v>44419</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
         <v>44980</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25033,7 +25033,7 @@
         <v>44789</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45107.66479166667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>45440.66909722222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>45092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>45999.6604050926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25437,7 +25437,7 @@
         <v>45747.64530092593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25499,7 +25499,7 @@
         <v>45315.62240740741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>46000.43576388889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>46043.58969907407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>46043.72383101852</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25737,7 +25737,7 @@
         <v>46043.53034722222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>46043.71197916667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25851,7 +25851,7 @@
         <v>46043.71537037037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25908,7 +25908,7 @@
         <v>46043.73894675926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         <v>46043.47976851852</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26027,7 +26027,7 @@
         <v>44546</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26089,7 +26089,7 @@
         <v>45250.39884259259</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45308.76643518519</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>46043.50650462963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45755.47313657407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26327,7 +26327,7 @@
         <v>45554.54119212963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26384,7 +26384,7 @@
         <v>45267.36078703704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26441,7 +26441,7 @@
         <v>44721</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26498,7 +26498,7 @@
         <v>44995</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>46043</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>46003.29640046296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26674,7 +26674,7 @@
         <v>46045.44604166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26736,7 +26736,7 @@
         <v>44410</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26793,7 +26793,7 @@
         <v>44721</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26850,7 +26850,7 @@
         <v>46044.29256944444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26907,7 +26907,7 @@
         <v>45222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26964,7 +26964,7 @@
         <v>46045.58934027778</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         <v>46045.58835648148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>45208.47564814815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>46044.29564814815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44964.8993287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>46045.53561342593</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>45457</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>46043</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>45747.48892361111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>45688.36620370371</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27564,7 +27564,7 @@
         <v>46049.31769675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         <v>46048.34472222222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27678,7 +27678,7 @@
         <v>45440.64967592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27735,7 +27735,7 @@
         <v>44833.62730324074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27792,7 +27792,7 @@
         <v>46006.60688657407</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27849,7 +27849,7 @@
         <v>46048.33707175926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         <v>46048.42853009259</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27963,7 +27963,7 @@
         <v>46049.50449074074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28020,7 +28020,7 @@
         <v>46050.318125</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28077,7 +28077,7 @@
         <v>46050.66363425926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28134,7 +28134,7 @@
         <v>44735.66302083333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28191,7 +28191,7 @@
         <v>46008.61575231481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28248,7 +28248,7 @@
         <v>45566.53474537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28310,7 +28310,7 @@
         <v>45566.53746527778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28372,7 +28372,7 @@
         <v>46010.67361111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28429,7 +28429,7 @@
         <v>46055.64608796296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>46055.60255787037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>46055.46429398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44741</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>46056.35708333334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>44411</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>46056.31877314814</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>46056.32425925926</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>46056.32792824074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>46056.34627314815</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46056.37072916667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44293</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>44881.3762037037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>44931.33885416666</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>44390</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>44400</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44489.94530092592</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>44806</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45601.40877314815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>45155</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>45224.398125</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29708,7 +29708,7 @@
         <v>45104.38790509259</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29770,7 +29770,7 @@
         <v>45442.63207175926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         <v>45761.67773148148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29884,7 +29884,7 @@
         <v>44862</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29946,7 +29946,7 @@
         <v>45378</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30003,7 +30003,7 @@
         <v>45483.48837962963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30060,7 +30060,7 @@
         <v>44972</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30117,7 +30117,7 @@
         <v>45666.70396990741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30174,7 +30174,7 @@
         <v>45555.54030092592</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30231,7 +30231,7 @@
         <v>44970</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30288,7 +30288,7 @@
         <v>45538</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30345,7 +30345,7 @@
         <v>44778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30499,7 +30499,7 @@
         <v>44930</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
         <v>45042</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30613,7 +30613,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>44495</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30732,7 +30732,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         <v>45098</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30846,7 +30846,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30908,7 +30908,7 @@
         <v>45243</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45334</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45243</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31079,7 +31079,7 @@
         <v>45022</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31136,7 +31136,7 @@
         <v>44902.49914351852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31193,7 +31193,7 @@
         <v>45225</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>44922</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31307,7 +31307,7 @@
         <v>45565.47655092592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31369,7 +31369,7 @@
         <v>45565.48195601852</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31431,7 +31431,7 @@
         <v>44532</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31488,7 +31488,7 @@
         <v>44631</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31545,7 +31545,7 @@
         <v>44917</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31602,7 +31602,7 @@
         <v>44371</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31659,7 +31659,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31716,7 +31716,7 @@
         <v>45224.32313657407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31773,7 +31773,7 @@
         <v>44618.86863425926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31830,7 +31830,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31887,7 +31887,7 @@
         <v>45387.34957175926</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31944,7 +31944,7 @@
         <v>45122.39309027778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32001,7 +32001,7 @@
         <v>44745</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32058,7 +32058,7 @@
         <v>45183.84976851852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32115,7 +32115,7 @@
         <v>45400</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44965</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         <v>45471.5771875</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32286,7 +32286,7 @@
         <v>44817.38878472222</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>45328</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32400,7 +32400,7 @@
         <v>45736.59162037037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32457,7 +32457,7 @@
         <v>45597.76792824074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>45225</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45379.47295138889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32628,7 +32628,7 @@
         <v>45379</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32685,7 +32685,7 @@
         <v>45379</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32742,7 +32742,7 @@
         <v>45112</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32804,7 +32804,7 @@
         <v>45184</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32861,7 +32861,7 @@
         <v>45478</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32918,7 +32918,7 @@
         <v>45316.81165509259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32975,7 +32975,7 @@
         <v>44564</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33032,7 +33032,7 @@
         <v>45665.39953703704</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33089,7 +33089,7 @@
         <v>45755.45708333333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         <v>45758.50716435185</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33203,7 +33203,7 @@
         <v>45182</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33260,7 +33260,7 @@
         <v>45671.35634259259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33317,7 +33317,7 @@
         <v>44392</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33374,7 +33374,7 @@
         <v>44392</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33431,7 +33431,7 @@
         <v>45468</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33488,7 +33488,7 @@
         <v>45334</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33545,7 +33545,7 @@
         <v>45601.38733796297</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33602,7 +33602,7 @@
         <v>44839</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33659,7 +33659,7 @@
         <v>45169.58528935185</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33716,7 +33716,7 @@
         <v>44784</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33773,7 +33773,7 @@
         <v>45258.6102662037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>45384.67591435185</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>45763.66409722222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>45040.55717592593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>44952</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>44596</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34120,7 +34120,7 @@
         <v>45296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45461</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34234,7 +34234,7 @@
         <v>45720.44211805556</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34291,7 +34291,7 @@
         <v>45308</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34348,7 +34348,7 @@
         <v>44902.50083333333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>45525</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>45715</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34524,7 +34524,7 @@
         <v>45168</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>45153.5044212963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>45180</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34695,7 +34695,7 @@
         <v>45182.86355324074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34752,7 +34752,7 @@
         <v>44582.54878472222</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34809,7 +34809,7 @@
         <v>45415.32174768519</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         <v>44546</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>45572.41862268518</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>44915</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>45296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>45261</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44656</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>45776.31901620371</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45776.31081018518</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45707.2930787037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>45784.33703703704</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45784.32862268519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>45796.57399305556</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>45796.40332175926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>45308.75856481482</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>45796.67018518518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>45671.6171875</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>45796.65553240741</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -575,7 +575,7 @@
         <v>45785</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45713</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>45343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45824</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44574.756875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44546</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44458</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>45896.59030092593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45155</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>44250</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>44516</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44778</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45734.69969907407</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         <v>44823</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>45783.45811342593</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44256</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45156</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2837,14 +2837,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 29622-2025</t>
+          <t>A 698-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45825</v>
+        <v>46029.6153125</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2857,16 +2857,16 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2890,963 +2890,964 @@
         <v>3</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 698-2026 artfynd.xlsx", "A 698-2026")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 698-2026 karta.png", "A 698-2026")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 698-2026 FSC-klagomål.docx", "A 698-2026")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 698-2026 FSC-klagomål mail.docx", "A 698-2026")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 698-2026 tillsynsbegäran.docx", "A 698-2026")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 698-2026 tillsynsbegäran mail.docx", "A 698-2026")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 698-2026 prioriterade fågelarter.docx", "A 698-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 29622-2025</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Entita
 Spillkråka
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 29622-2025 artfynd.xlsx", "A 29622-2025")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 29622-2025 karta.png", "A 29622-2025")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 29622-2025 FSC-klagomål.docx", "A 29622-2025")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 29622-2025 FSC-klagomål mail.docx", "A 29622-2025")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 29622-2025 tillsynsbegäran.docx", "A 29622-2025")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 29622-2025 tillsynsbegäran mail.docx", "A 29622-2025")</f>
         <v/>
       </c>
-      <c r="Z25">
+      <c r="Z26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 29622-2025 prioriterade fågelarter.docx", "A 29622-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 34708-2025</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>45848</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
+      <c r="C27" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>0.9</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>3</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
 Talltita</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 34708-2025 artfynd.xlsx", "A 34708-2025")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 34708-2025 karta.png", "A 34708-2025")</f>
         <v/>
       </c>
-      <c r="U26">
+      <c r="U27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 34708-2025 karta knärot.png", "A 34708-2025")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 34708-2025 FSC-klagomål.docx", "A 34708-2025")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 34708-2025 FSC-klagomål mail.docx", "A 34708-2025")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 34708-2025 tillsynsbegäran.docx", "A 34708-2025")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 34708-2025 tillsynsbegäran mail.docx", "A 34708-2025")</f>
         <v/>
       </c>
-      <c r="Z26">
+      <c r="Z27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 34708-2025 prioriterade fågelarter.docx", "A 34708-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 30472-2023</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>45111</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="C28" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G28" t="n">
         <v>12.2</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>1</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Utter
 Åkergroda
 Vanlig groda</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 30472-2023 artfynd.xlsx", "A 30472-2023")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 30472-2023 karta.png", "A 30472-2023")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 30472-2023 FSC-klagomål.docx", "A 30472-2023")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 30472-2023 FSC-klagomål mail.docx", "A 30472-2023")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 30472-2023 tillsynsbegäran.docx", "A 30472-2023")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 30472-2023 tillsynsbegäran mail.docx", "A 30472-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 614-2024</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>45299</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="C29" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>3.9</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>3</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>3</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Tallticka
 Vedskivlav</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 614-2024 artfynd.xlsx", "A 614-2024")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 614-2024 karta.png", "A 614-2024")</f>
         <v/>
       </c>
-      <c r="U28">
+      <c r="U29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 614-2024 karta knärot.png", "A 614-2024")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 614-2024 FSC-klagomål.docx", "A 614-2024")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 614-2024 FSC-klagomål mail.docx", "A 614-2024")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 614-2024 tillsynsbegäran.docx", "A 614-2024")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 614-2024 tillsynsbegäran mail.docx", "A 614-2024")</f>
         <v/>
       </c>
-      <c r="Z28">
+      <c r="Z29">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 614-2024 prioriterade fågelarter.docx", "A 614-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 9382-2021</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>44250</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="C30" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>0.9</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 9382-2021 artfynd.xlsx", "A 9382-2021")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 9382-2021 karta.png", "A 9382-2021")</f>
         <v/>
       </c>
-      <c r="U29">
+      <c r="U30">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 9382-2021 karta knärot.png", "A 9382-2021")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 9382-2021 FSC-klagomål.docx", "A 9382-2021")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 9382-2021 FSC-klagomål mail.docx", "A 9382-2021")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 9382-2021 tillsynsbegäran.docx", "A 9382-2021")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 9382-2021 tillsynsbegäran mail.docx", "A 9382-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 53205-2022</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G31" t="n">
         <v>12.8</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Havsörn
 Skogsbräsma</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 53205-2022 artfynd.xlsx", "A 53205-2022")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 53205-2022 karta.png", "A 53205-2022")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 53205-2022 FSC-klagomål.docx", "A 53205-2022")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 53205-2022 FSC-klagomål mail.docx", "A 53205-2022")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 53205-2022 tillsynsbegäran.docx", "A 53205-2022")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 53205-2022 tillsynsbegäran mail.docx", "A 53205-2022")</f>
         <v/>
       </c>
-      <c r="Z30">
+      <c r="Z31">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 53205-2022 prioriterade fågelarter.docx", "A 53205-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 11501-2022</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44631</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="C32" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>2</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Dvärghäxört
 Springkorn</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 11501-2022 artfynd.xlsx", "A 11501-2022")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 11501-2022 karta.png", "A 11501-2022")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 11501-2022 FSC-klagomål.docx", "A 11501-2022")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 11501-2022 FSC-klagomål mail.docx", "A 11501-2022")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 11501-2022 tillsynsbegäran.docx", "A 11501-2022")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 11501-2022 tillsynsbegäran mail.docx", "A 11501-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 17429-2024</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>45415.32003472222</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="C33" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>6</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Gölgroda
 Ätlig groda</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 17429-2024 artfynd.xlsx", "A 17429-2024")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 17429-2024 karta.png", "A 17429-2024")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 17429-2024 FSC-klagomål.docx", "A 17429-2024")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 17429-2024 FSC-klagomål mail.docx", "A 17429-2024")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 17429-2024 tillsynsbegäran.docx", "A 17429-2024")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 17429-2024 tillsynsbegäran mail.docx", "A 17429-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 42539-2024</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>45565.58633101852</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
+      <c r="C34" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>7.4</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Vårstarr
 Gullviva</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 42539-2024 artfynd.xlsx", "A 42539-2024")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 42539-2024 karta.png", "A 42539-2024")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 42539-2024 FSC-klagomål.docx", "A 42539-2024")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 42539-2024 FSC-klagomål mail.docx", "A 42539-2024")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 42539-2024 tillsynsbegäran.docx", "A 42539-2024")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 42539-2024 tillsynsbegäran mail.docx", "A 42539-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 33570-2023</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>45131</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="C35" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>10.6</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="P34" t="n">
+      <c r="P35" t="n">
         <v>2</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q35" t="n">
         <v>2</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Hypebaeus flavipes
 Läderbagge</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 33570-2023 artfynd.xlsx", "A 33570-2023")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 33570-2023 karta.png", "A 33570-2023")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 33570-2023 FSC-klagomål.docx", "A 33570-2023")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 33570-2023 FSC-klagomål mail.docx", "A 33570-2023")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 33570-2023 tillsynsbegäran.docx", "A 33570-2023")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 33570-2023 tillsynsbegäran mail.docx", "A 33570-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>A 698-2026</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>46029.6153125</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 698-2026 artfynd.xlsx", "A 698-2026")</f>
-        <v/>
-      </c>
-      <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 698-2026 karta.png", "A 698-2026")</f>
-        <v/>
-      </c>
-      <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 698-2026 FSC-klagomål.docx", "A 698-2026")</f>
-        <v/>
-      </c>
-      <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 698-2026 FSC-klagomål mail.docx", "A 698-2026")</f>
-        <v/>
-      </c>
-      <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 698-2026 tillsynsbegäran.docx", "A 698-2026")</f>
-        <v/>
-      </c>
-      <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 698-2026 tillsynsbegäran mail.docx", "A 698-2026")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 698-2026 prioriterade fågelarter.docx", "A 698-2026")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 42463-2024</t>
+          <t>A 689-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45565.47502314814</v>
+        <v>46029.61020833333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3858,22 +3859,17 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3888,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3898,131 +3894,141 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
+          <t>Talltita
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 689-2026 artfynd.xlsx", "A 689-2026")</f>
+        <v/>
+      </c>
+      <c r="T36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 689-2026 karta.png", "A 689-2026")</f>
+        <v/>
+      </c>
+      <c r="V36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 689-2026 FSC-klagomål.docx", "A 689-2026")</f>
+        <v/>
+      </c>
+      <c r="W36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 689-2026 FSC-klagomål mail.docx", "A 689-2026")</f>
+        <v/>
+      </c>
+      <c r="X36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 689-2026 tillsynsbegäran.docx", "A 689-2026")</f>
+        <v/>
+      </c>
+      <c r="Y36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 689-2026 tillsynsbegäran mail.docx", "A 689-2026")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 689-2026 prioriterade fågelarter.docx", "A 689-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>A 42463-2024</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>45565.47502314814</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
           <t>Fällmossa
 Blåsippa</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 42463-2024 artfynd.xlsx", "A 42463-2024")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 42463-2024 karta.png", "A 42463-2024")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 42463-2024 FSC-klagomål.docx", "A 42463-2024")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 42463-2024 FSC-klagomål mail.docx", "A 42463-2024")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 42463-2024 tillsynsbegäran.docx", "A 42463-2024")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 42463-2024 tillsynsbegäran mail.docx", "A 42463-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>A 9976-2022</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>44621</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 9976-2022 artfynd.xlsx", "A 9976-2022")</f>
-        <v/>
-      </c>
-      <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 9976-2022 karta.png", "A 9976-2022")</f>
-        <v/>
-      </c>
-      <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 9976-2022 FSC-klagomål.docx", "A 9976-2022")</f>
-        <v/>
-      </c>
-      <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 9976-2022 FSC-klagomål mail.docx", "A 9976-2022")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 9976-2022 tillsynsbegäran.docx", "A 9976-2022")</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 9976-2022 tillsynsbegäran mail.docx", "A 9976-2022")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 53088-2021</t>
+          <t>A 9976-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44467.859375</v>
+        <v>44621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4035,19 +4041,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4062,56 +4068,52 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 53088-2021 artfynd.xlsx", "A 53088-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 9976-2022 artfynd.xlsx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 53088-2021 karta.png", "A 53088-2021")</f>
-        <v/>
-      </c>
-      <c r="U38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 53088-2021 karta knärot.png", "A 53088-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 9976-2022 karta.png", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 53088-2021 FSC-klagomål.docx", "A 53088-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 9976-2022 FSC-klagomål.docx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 53088-2021 FSC-klagomål mail.docx", "A 53088-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 9976-2022 FSC-klagomål mail.docx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 53088-2021 tillsynsbegäran.docx", "A 53088-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 9976-2022 tillsynsbegäran.docx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 53088-2021 tillsynsbegäran mail.docx", "A 53088-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 9976-2022 tillsynsbegäran mail.docx", "A 9976-2022")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 8014-2022</t>
+          <t>A 53088-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44609</v>
+        <v>44467.859375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,19 +4126,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4151,52 +4153,56 @@
         <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 8014-2022 artfynd.xlsx", "A 8014-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 53088-2021 artfynd.xlsx", "A 53088-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 8014-2022 karta.png", "A 8014-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 53088-2021 karta.png", "A 53088-2021")</f>
+        <v/>
+      </c>
+      <c r="U39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 53088-2021 karta knärot.png", "A 53088-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 8014-2022 FSC-klagomål.docx", "A 8014-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 53088-2021 FSC-klagomål.docx", "A 53088-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 8014-2022 FSC-klagomål mail.docx", "A 8014-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 53088-2021 FSC-klagomål mail.docx", "A 53088-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 8014-2022 tillsynsbegäran.docx", "A 8014-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 53088-2021 tillsynsbegäran.docx", "A 53088-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 8014-2022 tillsynsbegäran mail.docx", "A 8014-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 53088-2021 tillsynsbegäran mail.docx", "A 53088-2021")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 56238-2021</t>
+          <t>A 8014-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44478</v>
+        <v>44609</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4208,23 +4214,18 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4248,45 +4249,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 56238-2021 artfynd.xlsx", "A 56238-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 8014-2022 artfynd.xlsx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 56238-2021 karta.png", "A 56238-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 8014-2022 karta.png", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 56238-2021 FSC-klagomål.docx", "A 56238-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 8014-2022 FSC-klagomål.docx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 56238-2021 FSC-klagomål mail.docx", "A 56238-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 8014-2022 FSC-klagomål mail.docx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 56238-2021 tillsynsbegäran.docx", "A 56238-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 8014-2022 tillsynsbegäran.docx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 56238-2021 tillsynsbegäran mail.docx", "A 56238-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 8014-2022 tillsynsbegäran mail.docx", "A 8014-2022")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 1126-2023</t>
+          <t>A 56238-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44935.61596064815</v>
+        <v>44478</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4298,11 +4299,16 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -4333,45 +4339,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 1126-2023 artfynd.xlsx", "A 1126-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 56238-2021 artfynd.xlsx", "A 56238-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 1126-2023 karta.png", "A 1126-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 56238-2021 karta.png", "A 56238-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 1126-2023 FSC-klagomål.docx", "A 1126-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 56238-2021 FSC-klagomål.docx", "A 56238-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 1126-2023 FSC-klagomål mail.docx", "A 1126-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 56238-2021 FSC-klagomål mail.docx", "A 56238-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 1126-2023 tillsynsbegäran.docx", "A 1126-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 56238-2021 tillsynsbegäran.docx", "A 56238-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 1126-2023 tillsynsbegäran mail.docx", "A 1126-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 56238-2021 tillsynsbegäran mail.docx", "A 56238-2021")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 388-2025</t>
+          <t>A 1126-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45662.71215277778</v>
+        <v>44935.61596064815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,16 +4390,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4408,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4418,45 +4424,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Bergjohannesört</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 388-2025 artfynd.xlsx", "A 388-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 1126-2023 artfynd.xlsx", "A 1126-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 388-2025 karta.png", "A 388-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 1126-2023 karta.png", "A 1126-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 388-2025 FSC-klagomål.docx", "A 388-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 1126-2023 FSC-klagomål.docx", "A 1126-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 388-2025 FSC-klagomål mail.docx", "A 388-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 1126-2023 FSC-klagomål mail.docx", "A 1126-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 388-2025 tillsynsbegäran.docx", "A 388-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 1126-2023 tillsynsbegäran.docx", "A 1126-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 388-2025 tillsynsbegäran mail.docx", "A 388-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 1126-2023 tillsynsbegäran mail.docx", "A 1126-2023")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 63433-2023</t>
+          <t>A 388-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45274</v>
+        <v>45662.71215277778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4468,23 +4474,18 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4508,45 +4509,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Bergjohannesört</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 63433-2023 artfynd.xlsx", "A 63433-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 388-2025 artfynd.xlsx", "A 388-2025")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 63433-2023 karta.png", "A 63433-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 388-2025 karta.png", "A 388-2025")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 63433-2023 FSC-klagomål.docx", "A 63433-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 388-2025 FSC-klagomål.docx", "A 388-2025")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 63433-2023 FSC-klagomål mail.docx", "A 63433-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 388-2025 FSC-klagomål mail.docx", "A 388-2025")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 63433-2023 tillsynsbegäran.docx", "A 63433-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 388-2025 tillsynsbegäran.docx", "A 388-2025")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 63433-2023 tillsynsbegäran mail.docx", "A 63433-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 388-2025 tillsynsbegäran mail.docx", "A 388-2025")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49689-2025</t>
+          <t>A 63433-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45938</v>
+        <v>45274</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4558,8 +4559,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -4568,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4583,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4593,49 +4599,45 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 49689-2025 artfynd.xlsx", "A 49689-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 63433-2023 artfynd.xlsx", "A 63433-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 49689-2025 karta.png", "A 49689-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 63433-2023 karta.png", "A 63433-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 49689-2025 FSC-klagomål.docx", "A 49689-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 63433-2023 FSC-klagomål.docx", "A 63433-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 49689-2025 FSC-klagomål mail.docx", "A 49689-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 63433-2023 FSC-klagomål mail.docx", "A 63433-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 49689-2025 tillsynsbegäran.docx", "A 49689-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 63433-2023 tillsynsbegäran.docx", "A 63433-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 49689-2025 tillsynsbegäran mail.docx", "A 49689-2025")</f>
-        <v/>
-      </c>
-      <c r="Z44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 49689-2025 prioriterade fågelarter.docx", "A 49689-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 63433-2023 tillsynsbegäran mail.docx", "A 63433-2023")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 39488-2021</t>
+          <t>A 49689-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44414</v>
+        <v>45938</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4648,10 +4650,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4682,45 +4684,49 @@
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>Ekticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 39488-2021 artfynd.xlsx", "A 39488-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 49689-2025 artfynd.xlsx", "A 49689-2025")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 39488-2021 karta.png", "A 39488-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 49689-2025 karta.png", "A 49689-2025")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 39488-2021 FSC-klagomål.docx", "A 39488-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 49689-2025 FSC-klagomål.docx", "A 49689-2025")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 39488-2021 FSC-klagomål mail.docx", "A 39488-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 49689-2025 FSC-klagomål mail.docx", "A 49689-2025")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 39488-2021 tillsynsbegäran.docx", "A 39488-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 49689-2025 tillsynsbegäran.docx", "A 49689-2025")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 39488-2021 tillsynsbegäran mail.docx", "A 39488-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 49689-2025 tillsynsbegäran mail.docx", "A 49689-2025")</f>
+        <v/>
+      </c>
+      <c r="Z45">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 49689-2025 prioriterade fågelarter.docx", "A 49689-2025")</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 4149-2024</t>
+          <t>A 39488-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45323.8091087963</v>
+        <v>44414</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4733,19 +4739,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>1</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4760,56 +4766,52 @@
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ekticka</t>
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 4149-2024 artfynd.xlsx", "A 4149-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 39488-2021 artfynd.xlsx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 4149-2024 karta.png", "A 4149-2024")</f>
-        <v/>
-      </c>
-      <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 4149-2024 karta knärot.png", "A 4149-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 39488-2021 karta.png", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 4149-2024 FSC-klagomål.docx", "A 4149-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 39488-2021 FSC-klagomål.docx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 4149-2024 FSC-klagomål mail.docx", "A 4149-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 39488-2021 FSC-klagomål mail.docx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 4149-2024 tillsynsbegäran.docx", "A 4149-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 39488-2021 tillsynsbegäran.docx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 4149-2024 tillsynsbegäran mail.docx", "A 4149-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 39488-2021 tillsynsbegäran mail.docx", "A 39488-2021")</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57110-2025</t>
+          <t>A 4149-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45979.45349537037</v>
+        <v>45323.8091087963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4821,25 +4823,20 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4854,52 +4851,56 @@
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 57110-2025 artfynd.xlsx", "A 57110-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 4149-2024 artfynd.xlsx", "A 4149-2024")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 57110-2025 karta.png", "A 57110-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 4149-2024 karta.png", "A 4149-2024")</f>
+        <v/>
+      </c>
+      <c r="U47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 4149-2024 karta knärot.png", "A 4149-2024")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 57110-2025 FSC-klagomål.docx", "A 57110-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 4149-2024 FSC-klagomål.docx", "A 4149-2024")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 57110-2025 FSC-klagomål mail.docx", "A 57110-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 4149-2024 FSC-klagomål mail.docx", "A 4149-2024")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 57110-2025 tillsynsbegäran.docx", "A 57110-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 4149-2024 tillsynsbegäran.docx", "A 4149-2024")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 57110-2025 tillsynsbegäran mail.docx", "A 57110-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 4149-2024 tillsynsbegäran mail.docx", "A 4149-2024")</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 58023-2025</t>
+          <t>A 57110-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45982</v>
+        <v>45979.45349537037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,11 +4912,16 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4946,49 +4952,45 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 58023-2025 artfynd.xlsx", "A 58023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 57110-2025 artfynd.xlsx", "A 57110-2025")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 58023-2025 karta.png", "A 58023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 57110-2025 karta.png", "A 57110-2025")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 58023-2025 FSC-klagomål.docx", "A 58023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 57110-2025 FSC-klagomål.docx", "A 57110-2025")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 58023-2025 FSC-klagomål mail.docx", "A 58023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 57110-2025 FSC-klagomål mail.docx", "A 57110-2025")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 58023-2025 tillsynsbegäran.docx", "A 58023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 57110-2025 tillsynsbegäran.docx", "A 57110-2025")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 58023-2025 tillsynsbegäran mail.docx", "A 58023-2025")</f>
-        <v/>
-      </c>
-      <c r="Z48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 58023-2025 prioriterade fågelarter.docx", "A 58023-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 57110-2025 tillsynsbegäran mail.docx", "A 57110-2025")</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58018-2025</t>
+          <t>A 58023-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>45982</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5001,7 +5003,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -5010,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -5028,56 +5030,56 @@
         <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 58018-2025 artfynd.xlsx", "A 58018-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 58023-2025 artfynd.xlsx", "A 58023-2025")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 58018-2025 karta.png", "A 58018-2025")</f>
-        <v/>
-      </c>
-      <c r="U49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 58018-2025 karta knärot.png", "A 58018-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 58023-2025 karta.png", "A 58023-2025")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 58018-2025 FSC-klagomål.docx", "A 58018-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 58023-2025 FSC-klagomål.docx", "A 58023-2025")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 58018-2025 FSC-klagomål mail.docx", "A 58018-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 58023-2025 FSC-klagomål mail.docx", "A 58023-2025")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 58018-2025 tillsynsbegäran.docx", "A 58018-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 58023-2025 tillsynsbegäran.docx", "A 58023-2025")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 58018-2025 tillsynsbegäran mail.docx", "A 58018-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 58023-2025 tillsynsbegäran mail.docx", "A 58023-2025")</f>
+        <v/>
+      </c>
+      <c r="Z49">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/fåglar/A 58023-2025 prioriterade fågelarter.docx", "A 58023-2025")</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 689-2026</t>
+          <t>A 58018-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>46029.61020833333</v>
+        <v>45982</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5090,19 +5092,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -5117,38 +5119,42 @@
         <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 689-2026 artfynd.xlsx", "A 689-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/artfynd/A 58018-2025 artfynd.xlsx", "A 58018-2025")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 689-2026 karta.png", "A 689-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/kartor/A 58018-2025 karta.png", "A 58018-2025")</f>
+        <v/>
+      </c>
+      <c r="U50">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/knärot/A 58018-2025 karta knärot.png", "A 58018-2025")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 689-2026 FSC-klagomål.docx", "A 689-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomål/A 58018-2025 FSC-klagomål.docx", "A 58018-2025")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 689-2026 FSC-klagomål mail.docx", "A 689-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/klagomålsmail/A 58018-2025 FSC-klagomål mail.docx", "A 58018-2025")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 689-2026 tillsynsbegäran.docx", "A 689-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsyn/A 58018-2025 tillsynsbegäran.docx", "A 58018-2025")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 689-2026 tillsynsbegäran mail.docx", "A 689-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0561/tillsynsmail/A 58018-2025 tillsynsbegäran mail.docx", "A 58018-2025")</f>
         <v/>
       </c>
     </row>
@@ -5162,7 +5168,7 @@
         <v>46048.42365740741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5247,7 +5253,7 @@
         <v>45156</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5340,7 +5346,7 @@
         <v>45666.70653935185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5425,7 +5431,7 @@
         <v>45727.34368055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5510,7 +5516,7 @@
         <v>45758.51744212963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5595,7 +5601,7 @@
         <v>45323</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5680,7 +5686,7 @@
         <v>44292</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5737,7 +5743,7 @@
         <v>44418</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5794,7 +5800,7 @@
         <v>44582.54748842592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5851,7 +5857,7 @@
         <v>44434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5908,7 +5914,7 @@
         <v>44641</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5965,7 +5971,7 @@
         <v>44539</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6022,7 +6028,7 @@
         <v>44826</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6079,7 +6085,7 @@
         <v>44417</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6136,7 +6142,7 @@
         <v>44273</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6193,7 +6199,7 @@
         <v>44238</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6250,7 +6256,7 @@
         <v>44292</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6307,7 +6313,7 @@
         <v>44479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6364,7 +6370,7 @@
         <v>44473.54983796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6421,7 +6427,7 @@
         <v>44546</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6483,7 +6489,7 @@
         <v>44467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6540,7 +6546,7 @@
         <v>44827</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6597,7 +6603,7 @@
         <v>44573.31362268519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6654,7 +6660,7 @@
         <v>44433</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6711,7 +6717,7 @@
         <v>44273.7997337963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6768,7 +6774,7 @@
         <v>44342</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6830,7 +6836,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6887,7 +6893,7 @@
         <v>44467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6944,7 +6950,7 @@
         <v>44495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7006,7 +7012,7 @@
         <v>44789</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7063,7 +7069,7 @@
         <v>44789</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7120,7 +7126,7 @@
         <v>44782</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7177,7 +7183,7 @@
         <v>44851</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7234,7 +7240,7 @@
         <v>44831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7291,7 +7297,7 @@
         <v>44433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7348,7 +7354,7 @@
         <v>44586</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7405,7 +7411,7 @@
         <v>44729.58247685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7467,7 +7473,7 @@
         <v>44434</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7524,7 +7530,7 @@
         <v>44467</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7581,7 +7587,7 @@
         <v>44279.87453703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7638,7 +7644,7 @@
         <v>44280.25524305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7695,7 +7701,7 @@
         <v>44305</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7752,7 +7758,7 @@
         <v>44879.81780092593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7809,7 +7815,7 @@
         <v>44479</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7866,7 +7872,7 @@
         <v>44439</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7923,7 +7929,7 @@
         <v>44543</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7980,7 +7986,7 @@
         <v>44333</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8042,7 +8048,7 @@
         <v>44552</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8104,7 +8110,7 @@
         <v>44531</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8166,7 +8172,7 @@
         <v>44593</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8223,7 +8229,7 @@
         <v>44573.321875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8280,7 +8286,7 @@
         <v>44292</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8337,7 +8343,7 @@
         <v>44539</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8394,7 +8400,7 @@
         <v>44838.32571759259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8451,7 +8457,7 @@
         <v>44420</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8508,7 +8514,7 @@
         <v>44789</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8565,7 +8571,7 @@
         <v>44439</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8622,7 +8628,7 @@
         <v>44462</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8684,7 +8690,7 @@
         <v>44627</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8741,7 +8747,7 @@
         <v>44706.67206018518</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8798,7 +8804,7 @@
         <v>44342.9053125</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8855,7 +8861,7 @@
         <v>44454</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8912,7 +8918,7 @@
         <v>44789</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8969,7 +8975,7 @@
         <v>44278</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9026,7 +9032,7 @@
         <v>44417</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9083,7 +9089,7 @@
         <v>44830</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9140,7 +9146,7 @@
         <v>44574.765</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9197,7 +9203,7 @@
         <v>44767.65296296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9254,7 +9260,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9311,7 +9317,7 @@
         <v>44449</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9368,7 +9374,7 @@
         <v>44445.64984953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9425,7 +9431,7 @@
         <v>44735</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9482,7 +9488,7 @@
         <v>44683.48711805556</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9539,7 +9545,7 @@
         <v>44724</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9596,7 +9602,7 @@
         <v>44784.63019675926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9653,7 +9659,7 @@
         <v>44256</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9710,7 +9716,7 @@
         <v>44368.86965277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9767,7 +9773,7 @@
         <v>44295.73100694444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9824,7 +9830,7 @@
         <v>44732.62368055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9886,7 +9892,7 @@
         <v>44860</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9948,7 +9954,7 @@
         <v>44879.82269675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10005,7 +10011,7 @@
         <v>44528</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10062,7 +10068,7 @@
         <v>44467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10119,7 +10125,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10176,7 +10182,7 @@
         <v>44514.53685185185</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10233,7 +10239,7 @@
         <v>44545.25053240741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10290,7 +10296,7 @@
         <v>44795</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10367,7 +10373,7 @@
         <v>44729.58146990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10429,7 +10435,7 @@
         <v>44325.87206018518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10491,7 +10497,7 @@
         <v>44760</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10548,7 +10554,7 @@
         <v>44424</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10605,7 +10611,7 @@
         <v>44778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10662,7 +10668,7 @@
         <v>44778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10719,7 +10725,7 @@
         <v>44292</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10776,7 +10782,7 @@
         <v>44629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10833,7 +10839,7 @@
         <v>44888</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10890,7 +10896,7 @@
         <v>45362.50371527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10952,7 +10958,7 @@
         <v>44967</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11009,7 +11015,7 @@
         <v>45072.60712962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11071,7 +11077,7 @@
         <v>44831.31862268518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11128,7 +11134,7 @@
         <v>44973</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11185,7 +11191,7 @@
         <v>44991</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11242,7 +11248,7 @@
         <v>44579</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11299,7 +11305,7 @@
         <v>45548.50846064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11356,7 +11362,7 @@
         <v>44847</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11418,7 +11424,7 @@
         <v>44895.30123842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11475,7 +11481,7 @@
         <v>44942</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11532,7 +11538,7 @@
         <v>44949</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11589,7 +11595,7 @@
         <v>44412</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11646,7 +11652,7 @@
         <v>45440.66633101852</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11703,7 +11709,7 @@
         <v>45761.67010416667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11760,7 +11766,7 @@
         <v>44745</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11817,7 +11823,7 @@
         <v>44327</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11885,7 @@
         <v>44621</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11936,7 +11942,7 @@
         <v>44841</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11998,7 +12004,7 @@
         <v>45222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12055,7 +12061,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12117,7 +12123,7 @@
         <v>45114</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12174,7 +12180,7 @@
         <v>45077.77979166667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12231,7 +12237,7 @@
         <v>44516</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12293,7 +12299,7 @@
         <v>44516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12355,7 +12361,7 @@
         <v>44742</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12412,7 +12418,7 @@
         <v>45036.49065972222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12469,7 +12475,7 @@
         <v>44516</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12531,7 +12537,7 @@
         <v>44806</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12588,7 +12594,7 @@
         <v>45167</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12645,7 +12651,7 @@
         <v>45665.54818287037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12702,7 +12708,7 @@
         <v>45348.42409722223</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12759,7 +12765,7 @@
         <v>44777.62895833333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12816,7 +12822,7 @@
         <v>45113.48548611111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12878,7 +12884,7 @@
         <v>45301</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12941,7 @@
         <v>44778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12992,7 +12998,7 @@
         <v>45665.5291087963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13049,7 +13055,7 @@
         <v>45089</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13106,7 +13112,7 @@
         <v>45534.55334490741</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13163,7 +13169,7 @@
         <v>45664.34681712963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13220,7 +13226,7 @@
         <v>45267.36506944444</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13277,7 +13283,7 @@
         <v>44479</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13334,7 +13340,7 @@
         <v>45072.59619212963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13396,7 +13402,7 @@
         <v>44770</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13453,7 +13459,7 @@
         <v>45800.68248842593</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13510,7 +13516,7 @@
         <v>45799.86152777778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13567,7 +13573,7 @@
         <v>45804.57940972222</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13629,7 +13635,7 @@
         <v>44607</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13686,7 +13692,7 @@
         <v>44410</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13743,7 +13749,7 @@
         <v>45362.55030092593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13805,7 +13811,7 @@
         <v>45180</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13868,7 @@
         <v>45727.54421296297</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13924,7 +13930,7 @@
         <v>44897.43328703703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13981,7 +13987,7 @@
         <v>45888.32987268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14038,7 +14044,7 @@
         <v>45110</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14100,7 +14106,7 @@
         <v>45888.33875</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14157,7 +14163,7 @@
         <v>45475</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14214,7 +14220,7 @@
         <v>45475</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14271,7 +14277,7 @@
         <v>45664.38144675926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14328,7 +14334,7 @@
         <v>45323</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14385,7 +14391,7 @@
         <v>45813.31575231482</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14442,7 +14448,7 @@
         <v>45224</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14504,7 +14510,7 @@
         <v>45817.62875</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14561,7 +14567,7 @@
         <v>45888</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14618,7 +14624,7 @@
         <v>45824</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14675,7 +14681,7 @@
         <v>44622.48778935185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14732,7 +14738,7 @@
         <v>45895.33560185185</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14789,7 +14795,7 @@
         <v>45740.56796296296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14846,7 +14852,7 @@
         <v>45896.58643518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14908,7 +14914,7 @@
         <v>45187</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14970,7 +14976,7 @@
         <v>45229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15033,7 @@
         <v>45896.58768518519</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15095,7 @@
         <v>45896.58465277778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15157,7 @@
         <v>45896.58913194444</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15219,7 @@
         <v>45898</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15270,7 +15276,7 @@
         <v>45898.28616898148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15327,7 +15333,7 @@
         <v>45898.29173611111</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15384,7 +15390,7 @@
         <v>45817.31120370371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15441,7 +15447,7 @@
         <v>45224</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15503,7 +15509,7 @@
         <v>45713.79457175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15560,7 +15566,7 @@
         <v>45224.48658564815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15622,7 +15628,7 @@
         <v>45727.41440972222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15679,7 +15685,7 @@
         <v>45566.50620370371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15741,7 +15747,7 @@
         <v>45229</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15798,7 +15804,7 @@
         <v>45824.61387731481</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15855,7 +15861,7 @@
         <v>45229</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15912,7 +15918,7 @@
         <v>45433</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15969,7 +15975,7 @@
         <v>45825</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16026,7 +16032,7 @@
         <v>45909</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16083,7 +16089,7 @@
         <v>45908.56519675926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16140,7 +16146,7 @@
         <v>45122.39195601852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16197,7 +16203,7 @@
         <v>45912</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16254,7 +16260,7 @@
         <v>45827</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16311,7 +16317,7 @@
         <v>45827</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16368,7 +16374,7 @@
         <v>45047</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16425,7 +16431,7 @@
         <v>45665.53457175926</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16482,7 +16488,7 @@
         <v>45916.56863425926</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16539,7 +16545,7 @@
         <v>45917.42744212963</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16596,7 +16602,7 @@
         <v>45916.46465277778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16658,7 +16664,7 @@
         <v>45259.64954861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16715,7 +16721,7 @@
         <v>45259</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16772,7 +16778,7 @@
         <v>45916.57045138889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16829,7 +16835,7 @@
         <v>45831</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16886,7 +16892,7 @@
         <v>45835</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16943,7 +16949,7 @@
         <v>45835</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17000,7 +17006,7 @@
         <v>45183.87577546296</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17057,7 +17063,7 @@
         <v>45835</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17114,7 +17120,7 @@
         <v>44964</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17171,7 +17177,7 @@
         <v>44767</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17228,7 +17234,7 @@
         <v>45923.58244212963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17285,7 +17291,7 @@
         <v>45923.59025462963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17342,7 +17348,7 @@
         <v>45833.43495370371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17404,7 +17410,7 @@
         <v>45833.43892361111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17466,7 +17472,7 @@
         <v>45833.4369212963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17528,7 +17534,7 @@
         <v>45833.44028935185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17590,7 +17596,7 @@
         <v>45833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17652,7 +17658,7 @@
         <v>45923.89001157408</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17709,7 +17715,7 @@
         <v>45923.89930555555</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17766,7 +17772,7 @@
         <v>45924.34709490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17823,7 +17829,7 @@
         <v>45923.89409722222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17880,7 +17886,7 @@
         <v>45926.68689814815</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17937,7 +17943,7 @@
         <v>44459</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17994,7 +18000,7 @@
         <v>45926.67751157407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18051,7 +18057,7 @@
         <v>44721</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18108,7 +18114,7 @@
         <v>45837.48210648148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18165,7 +18171,7 @@
         <v>45932.59591435185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18222,7 +18228,7 @@
         <v>45334.32820601852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18279,7 +18285,7 @@
         <v>45058</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18336,7 +18342,7 @@
         <v>44767.63790509259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18393,7 +18399,7 @@
         <v>45358.46060185185</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18450,7 +18456,7 @@
         <v>45323</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18507,7 +18513,7 @@
         <v>45217</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18564,7 +18570,7 @@
         <v>45840.70689814815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18621,7 +18627,7 @@
         <v>45937.49260416667</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18678,7 +18684,7 @@
         <v>44994</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18740,7 +18746,7 @@
         <v>45939.36716435185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18797,7 +18803,7 @@
         <v>45072</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18854,7 +18860,7 @@
         <v>45938</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18916,7 +18922,7 @@
         <v>45943.338125</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18973,7 +18979,7 @@
         <v>45608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19035,7 +19041,7 @@
         <v>45608</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19097,7 +19103,7 @@
         <v>44937</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19154,7 +19160,7 @@
         <v>45727.331875</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19211,7 +19217,7 @@
         <v>45839</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19268,7 +19274,7 @@
         <v>45736.60052083333</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19325,7 +19331,7 @@
         <v>45205</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19387,7 +19393,7 @@
         <v>44876</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19444,7 +19450,7 @@
         <v>45077.54380787037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19501,7 +19507,7 @@
         <v>44935</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19558,7 +19564,7 @@
         <v>45343.80733796296</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19615,7 +19621,7 @@
         <v>45938</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19672,7 +19678,7 @@
         <v>45646.60424768519</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19734,7 +19740,7 @@
         <v>45944.56730324074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19791,7 +19797,7 @@
         <v>44342</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19848,7 +19854,7 @@
         <v>45944.32471064815</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19905,7 +19911,7 @@
         <v>45946.60359953704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19962,7 +19968,7 @@
         <v>45946.41390046296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20024,7 +20030,7 @@
         <v>45946.55326388889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20086,7 +20092,7 @@
         <v>45947.30487268518</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20143,7 +20149,7 @@
         <v>44371</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20200,7 +20206,7 @@
         <v>45951.61362268519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20257,7 +20263,7 @@
         <v>45951.61917824074</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20314,7 +20320,7 @@
         <v>45951.60975694445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20371,7 +20377,7 @@
         <v>45665.3637962963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20428,7 +20434,7 @@
         <v>45848</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20485,7 +20491,7 @@
         <v>45707.28776620371</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20542,7 +20548,7 @@
         <v>44988.56204861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20604,7 +20610,7 @@
         <v>45695.58439814814</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20661,7 +20667,7 @@
         <v>44929.83774305556</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20718,7 +20724,7 @@
         <v>45169.5819675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20775,7 +20781,7 @@
         <v>44872</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20837,7 +20843,7 @@
         <v>44236</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20894,7 +20900,7 @@
         <v>45170.43859953704</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20951,7 +20957,7 @@
         <v>45954.33555555555</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21013,7 +21019,7 @@
         <v>45665.53950231482</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21070,7 +21076,7 @@
         <v>45957.43980324074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21127,7 +21133,7 @@
         <v>45685.61706018518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21184,7 +21190,7 @@
         <v>44812.23584490741</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21241,7 +21247,7 @@
         <v>44516</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21303,7 +21309,7 @@
         <v>45104</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21360,7 +21366,7 @@
         <v>45104</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21417,7 +21423,7 @@
         <v>45958.59449074074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21474,7 +21480,7 @@
         <v>45118</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21531,7 +21537,7 @@
         <v>44833.62520833333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21588,7 +21594,7 @@
         <v>45877</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21645,7 +21651,7 @@
         <v>45168</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21707,7 +21713,7 @@
         <v>45877</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21764,7 +21770,7 @@
         <v>45958.59222222222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21821,7 +21827,7 @@
         <v>45022</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21878,7 +21884,7 @@
         <v>45959.34399305555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21935,7 +21941,7 @@
         <v>45881.60783564814</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21992,7 +21998,7 @@
         <v>45477</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22049,7 +22055,7 @@
         <v>44938.39666666667</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22106,7 +22112,7 @@
         <v>45713.68298611111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22163,7 +22169,7 @@
         <v>44294</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22220,7 +22226,7 @@
         <v>44791</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22277,7 +22283,7 @@
         <v>44938.46847222222</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22334,7 +22340,7 @@
         <v>45975.56467592593</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22396,7 +22402,7 @@
         <v>45229</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22453,7 +22459,7 @@
         <v>44988.64733796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22510,7 +22516,7 @@
         <v>45296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22567,7 +22573,7 @@
         <v>45384.68508101852</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22624,7 +22630,7 @@
         <v>44586</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22681,7 +22687,7 @@
         <v>45982.56547453703</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22738,7 +22744,7 @@
         <v>45176.51664351852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22795,7 +22801,7 @@
         <v>45982</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22852,7 +22858,7 @@
         <v>45740.53533564815</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22909,7 +22915,7 @@
         <v>45415.31837962963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22966,7 +22972,7 @@
         <v>45982</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23023,7 +23029,7 @@
         <v>45118</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23080,7 +23086,7 @@
         <v>45607.36407407407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23142,7 +23148,7 @@
         <v>45607.36740740741</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23204,7 +23210,7 @@
         <v>46029.60304398148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23261,7 +23267,7 @@
         <v>45607.37271990741</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23323,7 +23329,7 @@
         <v>45187</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23380,7 +23386,7 @@
         <v>45986</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23437,7 +23443,7 @@
         <v>44411</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23494,7 +23500,7 @@
         <v>46029.59616898148</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23551,7 +23557,7 @@
         <v>45415.32329861111</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23608,7 +23614,7 @@
         <v>44851</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23665,7 +23671,7 @@
         <v>44777</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23722,7 +23728,7 @@
         <v>44777</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23779,7 +23785,7 @@
         <v>45217</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23836,7 +23842,7 @@
         <v>45047</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23893,7 +23899,7 @@
         <v>45758.50152777778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23950,7 +23956,7 @@
         <v>45204</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24007,7 +24013,7 @@
         <v>44565.64885416667</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24064,7 +24070,7 @@
         <v>44545</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24121,7 +24127,7 @@
         <v>45664.36682870371</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24178,7 +24184,7 @@
         <v>46034</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24235,7 +24241,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24292,7 +24298,7 @@
         <v>46034.33706018519</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24349,7 +24355,7 @@
         <v>44517</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24406,7 +24412,7 @@
         <v>46035.40722222222</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24463,7 +24469,7 @@
         <v>46035.44307870371</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24520,7 +24526,7 @@
         <v>46035.45820601852</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24577,7 +24583,7 @@
         <v>45308.76549768518</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24634,7 +24640,7 @@
         <v>45734.62297453704</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24691,7 +24697,7 @@
         <v>46035.6759375</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24748,7 +24754,7 @@
         <v>44938</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24805,7 +24811,7 @@
         <v>45761</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24862,7 +24868,7 @@
         <v>45040.55646990741</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24919,7 +24925,7 @@
         <v>44419</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24976,7 +24982,7 @@
         <v>44980</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25033,7 +25039,7 @@
         <v>44789</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25090,7 +25096,7 @@
         <v>45107.66479166667</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25147,7 +25153,7 @@
         <v>44942</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25204,7 +25210,7 @@
         <v>45440.66909722222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25261,7 +25267,7 @@
         <v>45092</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25318,7 +25324,7 @@
         <v>45999.6604050926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25380,7 +25386,7 @@
         <v>45379</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25437,7 +25443,7 @@
         <v>45747.64530092593</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25499,7 +25505,7 @@
         <v>45315.62240740741</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25556,7 +25562,7 @@
         <v>46000.43576388889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25618,7 +25624,7 @@
         <v>46043.58969907407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25680,7 +25686,7 @@
         <v>46043.72383101852</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25737,7 +25743,7 @@
         <v>46043.53034722222</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25794,7 +25800,7 @@
         <v>46043.71197916667</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25851,7 +25857,7 @@
         <v>46043.71537037037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25908,7 +25914,7 @@
         <v>46043.73894675926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25965,7 +25971,7 @@
         <v>46043.47976851852</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26027,7 +26033,7 @@
         <v>44546</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26089,7 +26095,7 @@
         <v>45250.39884259259</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26151,7 +26157,7 @@
         <v>45308.76643518519</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26208,7 +26214,7 @@
         <v>46043.50650462963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26270,7 +26276,7 @@
         <v>45755.47313657407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26327,7 +26333,7 @@
         <v>45554.54119212963</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26384,7 +26390,7 @@
         <v>45267.36078703704</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26441,7 +26447,7 @@
         <v>44721</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26498,7 +26504,7 @@
         <v>44995</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26560,7 +26566,7 @@
         <v>46043</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26617,7 +26623,7 @@
         <v>46003.29640046296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26674,7 +26680,7 @@
         <v>46045.44604166667</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26736,7 +26742,7 @@
         <v>44410</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26793,7 +26799,7 @@
         <v>44721</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26850,7 +26856,7 @@
         <v>46044.29256944444</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26907,7 +26913,7 @@
         <v>45222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26964,7 +26970,7 @@
         <v>46045.58934027778</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27026,7 +27032,7 @@
         <v>46045.58835648148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27088,7 +27094,7 @@
         <v>45208.47564814815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27150,7 +27156,7 @@
         <v>46044.29564814815</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27207,7 +27213,7 @@
         <v>44964.8993287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27264,7 +27270,7 @@
         <v>46045.53561342593</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27326,7 +27332,7 @@
         <v>45457</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27388,7 +27394,7 @@
         <v>46043</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27445,7 +27451,7 @@
         <v>45747.48892361111</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27502,7 +27508,7 @@
         <v>45688.36620370371</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27564,7 +27570,7 @@
         <v>46049.31769675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27621,7 +27627,7 @@
         <v>46048.34472222222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27678,7 +27684,7 @@
         <v>45440.64967592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27735,7 +27741,7 @@
         <v>44833.62730324074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27792,7 +27798,7 @@
         <v>46006.60688657407</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27849,7 +27855,7 @@
         <v>46048.33707175926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27906,7 +27912,7 @@
         <v>46048.42853009259</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27963,7 +27969,7 @@
         <v>46049.50449074074</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28020,7 +28026,7 @@
         <v>46050.318125</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28077,7 +28083,7 @@
         <v>46050.66363425926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28134,7 +28140,7 @@
         <v>44735.66302083333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28191,7 +28197,7 @@
         <v>46008.61575231481</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28248,7 +28254,7 @@
         <v>45566.53474537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28310,7 +28316,7 @@
         <v>45566.53746527778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28372,7 +28378,7 @@
         <v>46010.67361111111</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28429,7 +28435,7 @@
         <v>46055.64608796296</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28491,7 +28497,7 @@
         <v>46055.60255787037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28553,7 +28559,7 @@
         <v>46055.46429398148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28615,7 +28621,7 @@
         <v>44741</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28672,7 +28678,7 @@
         <v>46056.35708333334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28729,7 +28735,7 @@
         <v>44411</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28786,7 +28792,7 @@
         <v>46056.31877314814</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28843,7 +28849,7 @@
         <v>46056.32425925926</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28900,7 +28906,7 @@
         <v>46056.32792824074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28957,7 +28963,7 @@
         <v>46056.34627314815</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29014,7 +29020,7 @@
         <v>46056.37072916667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29071,7 +29077,7 @@
         <v>44293</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29128,7 +29134,7 @@
         <v>44881.3762037037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29185,7 +29191,7 @@
         <v>44931.33885416666</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29242,7 +29248,7 @@
         <v>44390</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29299,7 +29305,7 @@
         <v>44400</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29356,7 +29362,7 @@
         <v>44489.94530092592</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29418,7 +29424,7 @@
         <v>44806</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29475,7 +29481,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29532,7 +29538,7 @@
         <v>45601.40877314815</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29589,7 +29595,7 @@
         <v>45155</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29646,7 +29652,7 @@
         <v>45224.398125</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29708,7 +29714,7 @@
         <v>45104.38790509259</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29770,7 +29776,7 @@
         <v>45442.63207175926</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29827,7 +29833,7 @@
         <v>45761.67773148148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29884,7 +29890,7 @@
         <v>44862</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29946,7 +29952,7 @@
         <v>45378</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30003,7 +30009,7 @@
         <v>45483.48837962963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30060,7 +30066,7 @@
         <v>44972</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30117,7 +30123,7 @@
         <v>45666.70396990741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30174,7 +30180,7 @@
         <v>45555.54030092592</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30231,7 +30237,7 @@
         <v>44970</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30288,7 +30294,7 @@
         <v>45538</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30345,7 +30351,7 @@
         <v>44778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30422,7 +30428,7 @@
         <v>44778</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30499,7 +30505,7 @@
         <v>44930</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30556,7 +30562,7 @@
         <v>45042</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30613,7 +30619,7 @@
         <v>45090</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30670,7 +30676,7 @@
         <v>44495</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30732,7 +30738,7 @@
         <v>45098</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30789,7 +30795,7 @@
         <v>45098</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30846,7 +30852,7 @@
         <v>45063</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30908,7 +30914,7 @@
         <v>45243</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30965,7 +30971,7 @@
         <v>45334</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31022,7 +31028,7 @@
         <v>45243</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31079,7 +31085,7 @@
         <v>45022</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31136,7 +31142,7 @@
         <v>44902.49914351852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31193,7 +31199,7 @@
         <v>45225</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31250,7 +31256,7 @@
         <v>44922</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31307,7 +31313,7 @@
         <v>45565.47655092592</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31369,7 +31375,7 @@
         <v>45565.48195601852</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31431,7 +31437,7 @@
         <v>44532</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31488,7 +31494,7 @@
         <v>44631</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31545,7 +31551,7 @@
         <v>44917</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31602,7 +31608,7 @@
         <v>44371</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31659,7 +31665,7 @@
         <v>45097</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31716,7 +31722,7 @@
         <v>45224.32313657407</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31773,7 +31779,7 @@
         <v>44618.86863425926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31830,7 +31836,7 @@
         <v>44742</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31887,7 +31893,7 @@
         <v>45387.34957175926</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31944,7 +31950,7 @@
         <v>45122.39309027778</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32001,7 +32007,7 @@
         <v>44745</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32058,7 +32064,7 @@
         <v>45183.84976851852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32115,7 +32121,7 @@
         <v>45400</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32172,7 +32178,7 @@
         <v>44965</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32229,7 +32235,7 @@
         <v>45471.5771875</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32286,7 +32292,7 @@
         <v>44817.38878472222</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32343,7 +32349,7 @@
         <v>45328</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32400,7 +32406,7 @@
         <v>45736.59162037037</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32457,7 +32463,7 @@
         <v>45597.76792824074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32514,7 +32520,7 @@
         <v>45225</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32571,7 +32577,7 @@
         <v>45379.47295138889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32628,7 +32634,7 @@
         <v>45379</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32685,7 +32691,7 @@
         <v>45379</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32742,7 +32748,7 @@
         <v>45112</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32804,7 +32810,7 @@
         <v>45184</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32861,7 +32867,7 @@
         <v>45478</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32918,7 +32924,7 @@
         <v>45316.81165509259</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32975,7 +32981,7 @@
         <v>44564</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33032,7 +33038,7 @@
         <v>45665.39953703704</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33089,7 +33095,7 @@
         <v>45755.45708333333</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33146,7 +33152,7 @@
         <v>45758.50716435185</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33203,7 +33209,7 @@
         <v>45182</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33260,7 +33266,7 @@
         <v>45671.35634259259</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33317,7 +33323,7 @@
         <v>44392</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33374,7 +33380,7 @@
         <v>44392</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33431,7 +33437,7 @@
         <v>45468</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33488,7 +33494,7 @@
         <v>45334</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33545,7 +33551,7 @@
         <v>45601.38733796297</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33602,7 +33608,7 @@
         <v>44839</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33659,7 +33665,7 @@
         <v>45169.58528935185</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33716,7 +33722,7 @@
         <v>44784</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33773,7 +33779,7 @@
         <v>45258.6102662037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33835,7 +33841,7 @@
         <v>45384.67591435185</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33892,7 +33898,7 @@
         <v>45763.66409722222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33949,7 +33955,7 @@
         <v>45040.55717592593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34006,7 +34012,7 @@
         <v>44952</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34063,7 +34069,7 @@
         <v>44596</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34120,7 +34126,7 @@
         <v>45296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34177,7 +34183,7 @@
         <v>45461</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34234,7 +34240,7 @@
         <v>45720.44211805556</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34291,7 +34297,7 @@
         <v>45308</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34348,7 +34354,7 @@
         <v>44902.50083333333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34405,7 +34411,7 @@
         <v>45525</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34462,7 +34468,7 @@
         <v>45715</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34524,7 +34530,7 @@
         <v>45168</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34581,7 +34587,7 @@
         <v>45153.5044212963</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34638,7 +34644,7 @@
         <v>45180</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34695,7 +34701,7 @@
         <v>45182.86355324074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34752,7 +34758,7 @@
         <v>44582.54878472222</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34809,7 +34815,7 @@
         <v>45415.32174768519</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34866,7 +34872,7 @@
         <v>44546</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34928,7 +34934,7 @@
         <v>45572.41862268518</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34985,7 +34991,7 @@
         <v>44915</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35042,7 +35048,7 @@
         <v>45296</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35099,7 +35105,7 @@
         <v>45261</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35156,7 +35162,7 @@
         <v>44656</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35213,7 +35219,7 @@
         <v>45776.31901620371</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35270,7 +35276,7 @@
         <v>45776.31081018518</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35327,7 +35333,7 @@
         <v>45707.2930787037</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35384,7 +35390,7 @@
         <v>45784.33703703704</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35441,7 +35447,7 @@
         <v>45784.32862268519</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35498,7 +35504,7 @@
         <v>45796.57399305556</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35555,7 +35561,7 @@
         <v>45796.40332175926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35612,7 +35618,7 @@
         <v>45308.75856481482</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35669,7 +35675,7 @@
         <v>45796.67018518518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35726,7 +35732,7 @@
         <v>45671.6171875</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35783,7 +35789,7 @@
         <v>45796.65553240741</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -575,7 +575,7 @@
         <v>45785</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45713</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>45343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45824</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44574.756875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44546</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44458</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>45896.59030092593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45155</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>46029.60304398148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44250</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44516</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45734.69969907407</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>44823</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>45783.45811342593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>45848</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45825</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>46029.6153125</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44250</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45415.32003472222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45565.58633101852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>46029.61020833333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>45565.47502314814</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44621</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44467.859375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44478</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44935.61596064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>45662.71215277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45274</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44414</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45938</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45323.8091087963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>45979.45349537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45982</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>45982</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>46048.42365740741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45156</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>46066.60930555555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45666.70653935185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45727.34368055555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>45758.51744212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>45323</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44292</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44418</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44641</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44582.54748842592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44539</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44826</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44417</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44273</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44292</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44473.54983796296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44827</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44573.31362268519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44273.7997337963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>44789</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>44789</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>44782</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44851</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44729.58247685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>44434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>44467</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44879.81780092593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44279.87453703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44280.25524305556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44305</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44543</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44552</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44531</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44573.321875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>44292</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44420</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44838.32571759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44789</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>44439</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44627</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>44706.67206018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44342.9053125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>44454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>44789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>44278</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44417</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44830</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44574.765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44767.65296296297</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44449</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>44445.64984953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44683.48711805556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44784.63019675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44256</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44368.86965277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44732.62368055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>44295.73100694444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44860</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44879.82269675926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44528</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44514.53685185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44545.25053240741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44729.58146990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44325.87206018518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>44760</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44424</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>44292</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44967</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>44888</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44831.31862268518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45362.50371527778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44991</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44895.30123842593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44579</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44942</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44847</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44973</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45548.50846064815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44412</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45072.60712962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45440.66633101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45761.67010416667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>44494</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44745</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44327</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44841</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>45114</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>45077.77979166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44742</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45036.49065972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44806</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45665.54818287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45301</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45113.48548611111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45665.5291087963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45089</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45534.55334490741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45664.34681712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45267.36506944444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45072.59619212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44607</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45348.42409722223</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45362.55030092593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>44777.62895833333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44897.43328703703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45224</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>45475</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45475</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>45664.38144675926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45323</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44622.48778935185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45817.31120370371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45187</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45229</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>44410</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45713.79457175926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45224</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45727.54421296297</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45824.61387731481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>45727.41440972222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>45825</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45888.32987268519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45888.33875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45229</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>45827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>45433</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>45888</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45824</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45895.33560185185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45740.56796296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45831</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45122.39195601852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45896.58643518519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45896.58768518519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45896.58465277778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45896.58913194444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45833.43495370371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45833.43892361111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45898</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>45833.4369212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45833.44028935185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45833</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45898.28616898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45898.29173611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45665.53457175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>45259.64954861111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45224.48658564815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>45566.50620370371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45183.87577546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45837.48210648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44964</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44767</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>45909</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>45840.70689814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>45908.56519675926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45727.331875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45736.60052083333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45912</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45646.60424768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44459</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44371</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45916.56863425926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45917.42744212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>45916.46465277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45916.57045138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>44721</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>45835</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45835</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45665.3637962963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45835</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>45848</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45334.32820601852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44767.63790509259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45923.58244212963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45923.59025462963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45358.46060185185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>45323</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45217</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45923.89001157408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45923.89930555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45924.34709490741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44929.83774305556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45923.89409722222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45072</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45170.43859953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45926.68689814815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45926.67751157407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>44937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45205</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44876</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45118</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45077.54380787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45343.80733796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44342</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45877</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45877</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45932.59591435185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45881.60783564814</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>45937.49260416667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45707.28776620371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45939.36716435185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44988.56204861111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>45695.58439814814</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>45938</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45169.5819675926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44872</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45943.338125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>45665.53950231482</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>45938</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>45944.56730324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>45685.61706018518</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44812.23584490741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44516</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45944.32471064815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>45946.60359953704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44833.62520833333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45946.41390046296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45168</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45946.55326388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45947.30487268518</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45951.61362268519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45951.61917824074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45951.60975694445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45022</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>45477</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44938.39666666667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45713.68298611111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45954.33555555555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45957.43980324074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45958.59449074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>44294</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45958.59222222222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44791</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>44938.46847222222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45229</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45959.34399305555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44988.64733796296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>45296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>45384.68508101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>44586</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>45176.51664351852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45740.53533564815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45415.31837962963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45975.56467592593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45607.36407407407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45607.36740740741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45607.37271990741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45187</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44411</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45415.32329861111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44851</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44777</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44777</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45217</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45758.50152777778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45204</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45982.56547453703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44565.64885416667</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44545</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45982</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45982</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45664.36682870371</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45986</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44517</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45308.76549768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45734.62297453704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44938</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45761</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45040.55646990741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>46034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44419</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>46034.33706018519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>46035.40722222222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>46035.44307870371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>46035.45820601852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44789</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>46035.6759375</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45107.66479166667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>44942</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45440.66909722222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45092</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45379</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45747.64530092593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45315.62240740741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>45999.6604050926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44546</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45250.39884259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45308.76643518519</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>45755.47313657407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>46000.43576388889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45554.54119212963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>46043.58969907407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>46043.72383101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>46043.53034722222</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45267.36078703704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>46043.71197916667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>46043.71537037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>46043.73894675926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>46043.47976851852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44721</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44995</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44410</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>46043.50650462963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44721</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45208.47564814815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>44964.8993287037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>46043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>46003.29640046296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>46045.44604166667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45457</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45747.48892361111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45688.36620370371</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>46044.29256944444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>46045.58934027778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>46045.58835648148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45440.64967592592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>46044.29564814815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>46045.53561342593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44833.62730324074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>46043</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>46049.31769675926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>46048.34472222222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>46006.60688657407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>46048.33707175926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>46048.42853009259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>46049.50449074074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>44735.66302083333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>46050.318125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45566.53474537037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45566.53746527778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>46050.66363425926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>46008.61575231481</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>46010.67361111111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>46055.64608796296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44411</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>46055.60255787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>46055.46429398148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>46056.35708333334</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>46056.32425925926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>46056.32792824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>46056.34627314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>46056.37072916667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44293</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44881.3762037037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44931.33885416666</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44390</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44400</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44489.94530092592</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44806</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45601.40877314815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45155</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45224.398125</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45104.38790509259</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>45442.63207175926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>46066.60547453703</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>45761.67773148148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>44862</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
         <v>45378</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45483.48837962963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>44972</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>46056</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45666.70396990741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>46070.57508101852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>46029.59616898148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45555.54030092592</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>44970</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45538</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44930</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>45042</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>45090</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>44495</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>45098</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>45098</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>45063</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45243</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>45334</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45243</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45022</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>44902.49914351852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45225</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44922</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>45565.47655092592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         <v>45565.48195601852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31211,7 +31211,7 @@
         <v>44532</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44631</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44917</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44371</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>45224.32313657407</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44618.86863425926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44742</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45387.34957175926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>45122.39309027778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>44745</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>45183.84976851852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45400</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44965</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>45471.5771875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>44817.38878472222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45328</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45736.59162037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45597.76792824074</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>45225</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32351,7 +32351,7 @@
         <v>45379.47295138889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>45379</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32465,7 +32465,7 @@
         <v>45379</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32522,7 +32522,7 @@
         <v>45112</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>45184</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>45478</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>45316.81165509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>44564</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>45665.39953703704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32869,7 +32869,7 @@
         <v>45755.45708333333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32926,7 +32926,7 @@
         <v>45758.50716435185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32983,7 +32983,7 @@
         <v>45182</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33040,7 +33040,7 @@
         <v>45671.35634259259</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33097,7 +33097,7 @@
         <v>44392</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>44392</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         <v>45468</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33268,7 +33268,7 @@
         <v>45334</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33325,7 +33325,7 @@
         <v>45601.38733796297</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33382,7 +33382,7 @@
         <v>44839</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33439,7 +33439,7 @@
         <v>45169.58528935185</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44784</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45258.6102662037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45384.67591435185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45763.66409722222</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45040.55717592593</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44952</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44596</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33900,7 +33900,7 @@
         <v>45296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         <v>45461</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>45720.44211805556</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34071,7 +34071,7 @@
         <v>45308</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34128,7 +34128,7 @@
         <v>44902.50083333333</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45525</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34242,7 +34242,7 @@
         <v>45715</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45168</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45153.5044212963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45180</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45182.86355324074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>44582.54878472222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45415.32174768519</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>44546</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>45572.41862268518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>44915</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45296</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45261</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>44656</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>45776.31901620371</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45776.31081018518</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>45707.2930787037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>45784.33703703704</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>45784.32862268519</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>45796.57399305556</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>45796.40332175926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>45308.75856481482</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>45796.67018518518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>45671.6171875</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>45796.65553240741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>45800.68248842593</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>45799.86152777778</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45804.57940972222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>45110</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35858,7 +35858,7 @@
         <v>45813.31575231482</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>45817.62875</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -575,7 +575,7 @@
         <v>45785</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45713</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>45343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>45824</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44574.756875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>44546</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44458</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         <v>45896.59030092593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45155</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>46029.60304398148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>44250</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>44516</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>45734.69969907407</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>44823</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>45783.45811342593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         <v>44256</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>45156</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>45259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>45848</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45825</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>45111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>46029.6153125</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44250</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
         <v>44874</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>44631</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>45415.32003472222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45565.58633101852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>46029.61020833333</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>45565.47502314814</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>44621</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44467.859375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
         <v>44609</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>44478</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         <v>44935.61596064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>45662.71215277778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45274</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>44414</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>45938</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4904,7 +4904,7 @@
         <v>45323.8091087963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4993,7 +4993,7 @@
         <v>45979.45349537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>45982</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>45982</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>46048.42365740741</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>45156</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>46066.60930555555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45666.70653935185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5609,7 +5609,7 @@
         <v>45727.34368055555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>45758.51744212963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>45323</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5864,7 +5864,7 @@
         <v>44292</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>44418</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6035,7 +6035,7 @@
         <v>44641</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>44582.54748842592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         <v>44539</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         <v>44826</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>44417</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>44273</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44546</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44292</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         <v>44473.54983796296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         <v>44479</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>44467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>44827</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>44573.31362268519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>44273.7997337963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6895,7 +6895,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         <v>44467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7009,7 +7009,7 @@
         <v>44495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>44342</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         <v>44789</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
         <v>44789</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>44782</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>44851</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
         <v>44433</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44831</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44586</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44729.58247685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>44434</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>44467</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44879.81780092593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44279.87453703704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44280.25524305556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44305</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44543</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44552</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44531</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44573.321875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8407,7 +8407,7 @@
         <v>44292</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8464,7 +8464,7 @@
         <v>44539</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44420</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44838.32571759259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44789</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>44439</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8749,7 +8749,7 @@
         <v>44462</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44627</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>44706.67206018518</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44342.9053125</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>44454</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>44789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>44278</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44417</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44830</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9267,7 +9267,7 @@
         <v>44574.765</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9324,7 +9324,7 @@
         <v>44467</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         <v>44767.65296296297</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         <v>44449</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>44445.64984953704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44735</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44683.48711805556</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44784.63019675926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44256</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44368.86965277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>44732.62368055555</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>44295.73100694444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44860</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44879.82269675926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44528</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44467</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44467</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44514.53685185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
         <v>44545.25053240741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44795</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10494,7 +10494,7 @@
         <v>44729.58146990741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44325.87206018518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         <v>44760</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44424</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>44292</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44967</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>44888</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44831.31862268518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>45362.50371527778</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44991</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44895.30123842593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44579</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44942</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44847</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44973</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>45548.50846064815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44412</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>45072.60712962963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>44949</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         <v>45440.66633101852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         <v>45761.67010416667</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>44494</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>44745</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         <v>44621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         <v>44327</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>44841</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         <v>45222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>45114</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>45077.77979166667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44516</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>44516</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44516</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         <v>44742</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45036.49065972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>44806</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45167</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45665.54818287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12829,7 +12829,7 @@
         <v>45301</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12886,7 +12886,7 @@
         <v>45113.48548611111</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12948,7 +12948,7 @@
         <v>44778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>45665.5291087963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
         <v>45089</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>45534.55334490741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13176,7 +13176,7 @@
         <v>45664.34681712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13233,7 +13233,7 @@
         <v>45267.36506944444</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13290,7 +13290,7 @@
         <v>44479</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13347,7 +13347,7 @@
         <v>45072.59619212963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
         <v>44770</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>44607</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45348.42409722223</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>45362.55030092593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13642,7 +13642,7 @@
         <v>44777.62895833333</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         <v>44897.43328703703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>45180</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>45224</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>45475</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13932,7 +13932,7 @@
         <v>45475</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
         <v>45664.38144675926</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14046,7 +14046,7 @@
         <v>45323</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>44622.48778935185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>45817.31120370371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>45187</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>45229</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>44410</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>45713.79457175926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14450,7 +14450,7 @@
         <v>45224</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45727.54421296297</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>45824.61387731481</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>45727.41440972222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>45825</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>45888.32987268519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>45888.33875</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45229</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45827</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>45827</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45229</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>45433</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>45888</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>45824</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45895.33560185185</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45740.56796296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45831</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45122.39195601852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45896.58643518519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15548,7 +15548,7 @@
         <v>45896.58768518519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>45896.58465277778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>45896.58913194444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>45833.43495370371</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45833.43892361111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15858,7 +15858,7 @@
         <v>45898</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15915,7 +15915,7 @@
         <v>45833.4369212963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45833.44028935185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>45833</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45898.28616898148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45898.29173611111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16215,7 +16215,7 @@
         <v>45047</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>45665.53457175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16329,7 +16329,7 @@
         <v>45259.64954861111</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>45259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16443,7 +16443,7 @@
         <v>45224.48658564815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16505,7 +16505,7 @@
         <v>45566.50620370371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>45183.87577546296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>45837.48210648148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44964</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44767</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>45909</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>45840.70689814815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>45908.56519675926</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>45727.331875</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17023,7 +17023,7 @@
         <v>45839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17080,7 +17080,7 @@
         <v>45736.60052083333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17137,7 +17137,7 @@
         <v>45912</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>45646.60424768519</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>44459</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>44371</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>45916.56863425926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17427,7 +17427,7 @@
         <v>45917.42744212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>45916.46465277778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>45916.57045138889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>44721</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>45835</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>45835</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>45665.3637962963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>45835</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>45848</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>45334.32820601852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>45058</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44767.63790509259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>45923.58244212963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45923.59025462963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45358.46060185185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>45323</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>45217</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18463,7 +18463,7 @@
         <v>45923.89001157408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18520,7 +18520,7 @@
         <v>45923.89930555555</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18577,7 +18577,7 @@
         <v>45924.34709490741</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18634,7 +18634,7 @@
         <v>44929.83774305556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18691,7 +18691,7 @@
         <v>45923.89409722222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
         <v>45072</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18805,7 +18805,7 @@
         <v>45170.43859953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>45926.68689814815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45926.67751157407</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>45608</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>45608</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>44937</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>45205</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>44876</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45118</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>45077.54380787037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19390,7 +19390,7 @@
         <v>44935</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
         <v>45343.80733796296</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44342</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19561,7 +19561,7 @@
         <v>45877</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19618,7 +19618,7 @@
         <v>45877</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         <v>45932.59591435185</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45881.60783564814</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>45937.49260416667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
         <v>45707.28776620371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19903,7 +19903,7 @@
         <v>45939.36716435185</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19960,7 +19960,7 @@
         <v>44988.56204861111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>45695.58439814814</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>45938</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20141,7 +20141,7 @@
         <v>45169.5819675926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>44872</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20260,7 +20260,7 @@
         <v>45943.338125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20317,7 +20317,7 @@
         <v>45665.53950231482</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20374,7 +20374,7 @@
         <v>45938</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20431,7 +20431,7 @@
         <v>45944.56730324074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>45685.61706018518</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44812.23584490741</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>44516</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45104</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20721,7 +20721,7 @@
         <v>45944.32471064815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20778,7 +20778,7 @@
         <v>45104</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20835,7 +20835,7 @@
         <v>45946.60359953704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>44833.62520833333</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45946.41390046296</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45168</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45946.55326388889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45947.30487268518</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21192,7 +21192,7 @@
         <v>45951.61362268519</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45951.61917824074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45951.60975694445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45022</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21420,7 +21420,7 @@
         <v>45477</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21477,7 +21477,7 @@
         <v>44938.39666666667</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21534,7 +21534,7 @@
         <v>45713.68298611111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21591,7 +21591,7 @@
         <v>45954.33555555555</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21653,7 +21653,7 @@
         <v>45957.43980324074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21710,7 +21710,7 @@
         <v>45958.59449074074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21767,7 +21767,7 @@
         <v>44294</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>45958.59222222222</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44791</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21938,7 +21938,7 @@
         <v>44938.46847222222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         <v>45229</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22052,7 +22052,7 @@
         <v>45959.34399305555</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22109,7 +22109,7 @@
         <v>44988.64733796296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22166,7 +22166,7 @@
         <v>45296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22223,7 +22223,7 @@
         <v>45384.68508101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>44586</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>45176.51664351852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>45740.53533564815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>45415.31837962963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45118</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45975.56467592593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45607.36407407407</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45607.36740740741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22751,7 +22751,7 @@
         <v>45607.37271990741</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>45187</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44411</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>45415.32329861111</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44851</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>44777</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>44777</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23155,7 +23155,7 @@
         <v>45217</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23212,7 +23212,7 @@
         <v>45047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23269,7 +23269,7 @@
         <v>45758.50152777778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45204</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23383,7 +23383,7 @@
         <v>45982.56547453703</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23440,7 +23440,7 @@
         <v>44565.64885416667</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>44545</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45982</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45982</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45664.36682870371</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45986</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>44517</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45308.76549768518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>45734.62297453704</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>44938</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>45761</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45040.55646990741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>46034</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24181,7 +24181,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44419</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>46034.33706018519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24352,7 +24352,7 @@
         <v>46035.40722222222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
         <v>46035.44307870371</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>46035.45820601852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44980</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44789</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>46035.6759375</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45107.66479166667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>44942</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24808,7 +24808,7 @@
         <v>45440.66909722222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24865,7 +24865,7 @@
         <v>45092</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>45379</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>45747.64530092593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>45315.62240740741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>45999.6604050926</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44546</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>45250.39884259259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25284,7 +25284,7 @@
         <v>45308.76643518519</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25341,7 +25341,7 @@
         <v>45755.47313657407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>46000.43576388889</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45554.54119212963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>46043.58969907407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>46043.72383101852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>46043.53034722222</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>45267.36078703704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>46043.71197916667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>46043.71537037037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>46043.73894675926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>46043.47976851852</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44721</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44995</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44410</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>46043.50650462963</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44721</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45208.47564814815</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>44964.8993287037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26454,7 +26454,7 @@
         <v>46043</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>46003.29640046296</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>46045.44604166667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45457</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45747.48892361111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45688.36620370371</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26811,7 +26811,7 @@
         <v>46044.29256944444</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26868,7 +26868,7 @@
         <v>46045.58934027778</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>46045.58835648148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26992,7 +26992,7 @@
         <v>45440.64967592592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>46044.29564814815</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         <v>46045.53561342593</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>44833.62730324074</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>46043</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>46049.31769675926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>46048.34472222222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>46006.60688657407</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>46048.33707175926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>46048.42853009259</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>46049.50449074074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>44735.66302083333</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>46050.318125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45566.53474537037</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45566.53746527778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>46050.66363425926</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>46008.61575231481</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>46010.67361111111</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>44741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28090,7 +28090,7 @@
         <v>46055.64608796296</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>44411</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28209,7 +28209,7 @@
         <v>46055.60255787037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>46055.46429398148</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>46056.35708333334</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>46056.32425925926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>46056.32792824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>46056.34627314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>46056.37072916667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>44293</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>44881.3762037037</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>44931.33885416666</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>44390</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>44400</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>44489.94530092592</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28965,7 +28965,7 @@
         <v>44806</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29022,7 +29022,7 @@
         <v>45097</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29079,7 +29079,7 @@
         <v>45601.40877314815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29136,7 +29136,7 @@
         <v>45155</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29193,7 +29193,7 @@
         <v>45224.398125</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29255,7 +29255,7 @@
         <v>45104.38790509259</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29317,7 +29317,7 @@
         <v>45442.63207175926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29374,7 +29374,7 @@
         <v>46066.60547453703</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29431,7 +29431,7 @@
         <v>45761.67773148148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29488,7 +29488,7 @@
         <v>44862</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29550,7 +29550,7 @@
         <v>45378</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45483.48837962963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29664,7 +29664,7 @@
         <v>44972</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29721,7 +29721,7 @@
         <v>46056</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>45666.70396990741</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29835,7 +29835,7 @@
         <v>46070.57508101852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29897,7 +29897,7 @@
         <v>46029.59616898148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29954,7 +29954,7 @@
         <v>45555.54030092592</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30011,7 +30011,7 @@
         <v>44970</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30068,7 +30068,7 @@
         <v>45538</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30125,7 +30125,7 @@
         <v>44778</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>44778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30279,7 +30279,7 @@
         <v>44930</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30336,7 +30336,7 @@
         <v>45042</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30393,7 +30393,7 @@
         <v>45090</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30450,7 +30450,7 @@
         <v>44495</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30512,7 +30512,7 @@
         <v>45098</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30569,7 +30569,7 @@
         <v>45098</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         <v>45063</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30688,7 +30688,7 @@
         <v>45243</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30745,7 +30745,7 @@
         <v>45334</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30802,7 +30802,7 @@
         <v>45243</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30859,7 +30859,7 @@
         <v>45022</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30916,7 +30916,7 @@
         <v>44902.49914351852</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30973,7 +30973,7 @@
         <v>45225</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31030,7 +31030,7 @@
         <v>44922</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31087,7 +31087,7 @@
         <v>45565.47655092592</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         <v>45565.48195601852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31211,7 +31211,7 @@
         <v>44532</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31268,7 +31268,7 @@
         <v>44631</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31325,7 +31325,7 @@
         <v>44917</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31382,7 +31382,7 @@
         <v>44371</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31439,7 +31439,7 @@
         <v>45097</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31496,7 +31496,7 @@
         <v>45224.32313657407</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31553,7 +31553,7 @@
         <v>44618.86863425926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>44742</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31667,7 +31667,7 @@
         <v>45387.34957175926</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31724,7 +31724,7 @@
         <v>45122.39309027778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31781,7 +31781,7 @@
         <v>44745</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31838,7 +31838,7 @@
         <v>45183.84976851852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31895,7 +31895,7 @@
         <v>45400</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31952,7 +31952,7 @@
         <v>44965</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32009,7 +32009,7 @@
         <v>45471.5771875</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         <v>44817.38878472222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32123,7 +32123,7 @@
         <v>45328</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32180,7 +32180,7 @@
         <v>45736.59162037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>45597.76792824074</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32294,7 +32294,7 @@
         <v>45225</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32351,7 +32351,7 @@
         <v>45379.47295138889</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32408,7 +32408,7 @@
         <v>45379</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32465,7 +32465,7 @@
         <v>45379</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32522,7 +32522,7 @@
         <v>45112</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32584,7 +32584,7 @@
         <v>45184</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32641,7 +32641,7 @@
         <v>45478</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32698,7 +32698,7 @@
         <v>45316.81165509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32755,7 +32755,7 @@
         <v>44564</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32812,7 +32812,7 @@
         <v>45665.39953703704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32869,7 +32869,7 @@
         <v>45755.45708333333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32926,7 +32926,7 @@
         <v>45758.50716435185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32983,7 +32983,7 @@
         <v>45182</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33040,7 +33040,7 @@
         <v>45671.35634259259</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33097,7 +33097,7 @@
         <v>44392</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33154,7 +33154,7 @@
         <v>44392</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         <v>45468</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33268,7 +33268,7 @@
         <v>45334</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33325,7 +33325,7 @@
         <v>45601.38733796297</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33382,7 +33382,7 @@
         <v>44839</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33439,7 +33439,7 @@
         <v>45169.58528935185</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44784</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45258.6102662037</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
         <v>45384.67591435185</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33672,7 +33672,7 @@
         <v>45763.66409722222</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33729,7 +33729,7 @@
         <v>45040.55717592593</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33786,7 +33786,7 @@
         <v>44952</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44596</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33900,7 +33900,7 @@
         <v>45296</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         <v>45461</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>45720.44211805556</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34071,7 +34071,7 @@
         <v>45308</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34128,7 +34128,7 @@
         <v>44902.50083333333</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45525</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34242,7 +34242,7 @@
         <v>45715</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45168</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>45153.5044212963</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>45180</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45182.86355324074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>44582.54878472222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45415.32174768519</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>44546</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>45572.41862268518</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>44915</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45296</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45261</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>44656</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>45776.31901620371</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45776.31081018518</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35107,7 +35107,7 @@
         <v>45707.2930787037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35164,7 +35164,7 @@
         <v>45784.33703703704</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35221,7 +35221,7 @@
         <v>45784.32862268519</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35278,7 +35278,7 @@
         <v>45796.57399305556</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35335,7 +35335,7 @@
         <v>45796.40332175926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>45308.75856481482</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35449,7 +35449,7 @@
         <v>45796.67018518518</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         <v>45671.6171875</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35563,7 +35563,7 @@
         <v>45796.65553240741</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35620,7 +35620,7 @@
         <v>45800.68248842593</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35677,7 +35677,7 @@
         <v>45799.86152777778</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35734,7 +35734,7 @@
         <v>45804.57940972222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35796,7 +35796,7 @@
         <v>45110</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35858,7 +35858,7 @@
         <v>45813.31575231482</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>45817.62875</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -575,7 +575,7 @@
         <v>45785</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45713</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>45343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45335</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45824</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>45848</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>44574.756875</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44949</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>44546</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>45896.59030092593</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>44458</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         <v>46029.60304398148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44516</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44823</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>44778</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>45734.69969907407</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>45783.45811342593</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>44256</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>45259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>45299</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>45848</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>46029.6153125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45825</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         <v>45156</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45415.32003472222</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45131</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44631</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>45565.47502314814</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44874</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
         <v>46029.61020833333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>45565.58633101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         <v>44467.859375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>44609</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44478</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>45323.8091087963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45323</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>45666.70653935185</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45758.51744212963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>45662.71215277778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>45727.34368055555</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>44414</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>45938</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45979.45349537037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>45982</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45982</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>44935.61596064815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         <v>45156</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>46048.42365740741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         <v>46066.60930555555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5583,7 +5583,7 @@
         <v>45274</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>44292</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>44418</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         <v>44582.54748842592</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>44434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>44539</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>44826</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>44417</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44641</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>44273</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44546</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>44292</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6305,7 +6305,7 @@
         <v>44479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>44473.54983796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>44467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
         <v>44827</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
         <v>44573.31362268519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6590,7 +6590,7 @@
         <v>44433</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
         <v>44342</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6709,7 +6709,7 @@
         <v>44273.7997337963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6766,7 +6766,7 @@
         <v>44495</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44467</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44789</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44789</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44782</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44851</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44433</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44831</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44586</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44729.58247685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44434</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44467</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44879.81780092593</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44279.87453703704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44280.25524305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>44305</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>44439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44543</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44479</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44333</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>44552</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>44531</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44573.321875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44292</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44539</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44838.32571759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44420</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44789</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>44439</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>44462</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44627</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>44706.67206018518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>44342.9053125</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44454</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>44789</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44278</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44417</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>44830</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>44574.765</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44467</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>44767.65296296297</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44449</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>44445.64984953704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>44735</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>44683.48711805556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44724</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>44784.63019675926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>44256</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44368.86965277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>44732.62368055555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>44295.73100694444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>44860</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44879.82269675926</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44528</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44467</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44514.53685185185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44545.25053240741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44795</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44729.58146990741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44325.87206018518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44760</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44424</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44778</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44292</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44294</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45343.80733796296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>45362.55030092593</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>44778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>45328</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>45334</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>44489.94530092592</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45208.47564814815</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45224.398125</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>45378</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44862</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>45222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>45296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>45092</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>45301</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>45379</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44767.63790509259</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>44789</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>44833.62520833333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>45457</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         <v>45440.64967592592</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>45400</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45308.76643518519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         <v>45440.66909722222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45261</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45258.6102662037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>44410</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>44411</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>45267.36078703704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>45534.55334490741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>44400</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>45478</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>44479</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>44419</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>44964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>45538</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45475</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45475</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>44564</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>44872</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>45804.57940972222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>44930</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>45155</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>45525</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13327,7 +13327,7 @@
         <v>45888.32987268519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45727.54421296297</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>45666.70396990741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>45554.54119212963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>45888.33875</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>44876</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13736,7 +13736,7 @@
         <v>45813.31575231482</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13793,7 +13793,7 @@
         <v>45713.79457175926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44516</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>44516</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>45047</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>45817.62875</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         <v>45379.47295138889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         <v>45379</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45379</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45824</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>44937</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         <v>45817.31120370371</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>45566.53474537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45740.56796296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>44596</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>44631</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>44980</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44995</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         <v>45895.33560185185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>45896.58465277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>45825</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>45888</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>45896.58913194444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
         <v>45896.58643518519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         <v>45896.58768518519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44888</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>45824.61387731481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>45898</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>45597.76792824074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>45898.28616898148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>45898.29173611111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>45384.68508101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>45224.48658564815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>45827</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15719,7 +15719,7 @@
         <v>44931.33885416666</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>45827</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>45566.50620370371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44656</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>45831</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>45833.43495370371</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>45833.43892361111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>45833.4369212963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45833.44028935185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16257,7 +16257,7 @@
         <v>45833</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>44741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>44895.30123842593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>44742</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>44994</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>44952</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45415.31837962963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45415.32329861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45908.56519675926</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45837.48210648148</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44942</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
         <v>45840.70689814815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16951,7 +16951,7 @@
         <v>45909</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>45308.76549768518</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
         <v>44935</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>45107.66479166667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>45727.331875</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17236,7 +17236,7 @@
         <v>45912</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>45646.60424768519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>44970</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>45736.60052083333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>44988.56204861111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>45839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>45225</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>44721</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>44371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>45118</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45608</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17878,7 +17878,7 @@
         <v>45608</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17940,7 +17940,7 @@
         <v>45916.56863425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>45916.57045138889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18054,7 +18054,7 @@
         <v>45664.34681712963</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18111,7 +18111,7 @@
         <v>45916.46465277778</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45665.3637962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45835</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>45848</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18344,7 +18344,7 @@
         <v>44770</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18401,7 +18401,7 @@
         <v>45917.42744212963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18458,7 +18458,7 @@
         <v>45835</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18515,7 +18515,7 @@
         <v>45835</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>44929.83774305556</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18629,7 +18629,7 @@
         <v>45923.58244212963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18686,7 +18686,7 @@
         <v>45923.89001157408</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45923.89930555555</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45182.86355324074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44745</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>45923.59025462963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18971,7 +18971,7 @@
         <v>45923.89409722222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>45924.34709490741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         <v>45926.67751157407</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19142,7 +19142,7 @@
         <v>45926.68689814815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         <v>45063</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>45170.43859953704</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>45114</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45932.59591435185</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44546</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19494,7 +19494,7 @@
         <v>45118</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19551,7 +19551,7 @@
         <v>44777</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
         <v>45877</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19665,7 +19665,7 @@
         <v>44565.64885416667</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19722,7 +19722,7 @@
         <v>44839</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44371</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>45877</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45881.60783564814</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44342</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44412</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45229</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44411</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45072.59619212963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>44607</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45243</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45755.45708333333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45937.49260416667</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45938</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20587,7 +20587,7 @@
         <v>45022</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20644,7 +20644,7 @@
         <v>45334</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>45077.54380787037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44922</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45939.36716435185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45250.39884259259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44410</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44545</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45072.60712962963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45944.56730324074</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45943.338125</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45944.32471064815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>45180</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45180</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45946.60359953704</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45938</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45946.55326388889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45946.41390046296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21633,7 +21633,7 @@
         <v>45089</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21690,7 +21690,7 @@
         <v>45471.5771875</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>44459</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21804,7 +21804,7 @@
         <v>45947.30487268518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>45229</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45951.61917824074</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45951.61362268519</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45951.60975694445</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>44516</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45740.53533564815</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45758.50152777778</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45758.50716435185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>45104.38790509259</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>45104</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>45954.33555555555</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>45958.59222222222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45958.59449074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45957.43980324074</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45387.34957175926</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>45122.39195601852</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>44915</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>45959.34399305555</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>45358.46060185185</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44495</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>44742</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>44532</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23135,7 +23135,7 @@
         <v>45167</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23192,7 +23192,7 @@
         <v>45267.36506944444</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>45565.47655092592</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>45565.48195601852</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>45384.67591435185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>45975.56467592593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45040.55646990741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>44778</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>45168</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45982</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45982.56547453703</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45122.39309027778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>45040.55717592593</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45982</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>44516</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24112,7 +24112,7 @@
         <v>45315.62240740741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
         <v>45986</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45415.32174768519</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45334.32820601852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45607.36407407407</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24402,7 +24402,7 @@
         <v>45607.36740740741</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>45607.37271990741</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44579</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>45665.53950231482</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>45169.5819675926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>45187</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>45483.48837962963</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44293</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>45993.72018518519</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>44988.64733796296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>45555.54030092592</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25039,7 +25039,7 @@
         <v>45601.40877314815</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25096,7 +25096,7 @@
         <v>45572.41862268518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25153,7 +25153,7 @@
         <v>45999.6604050926</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>45442.63207175926</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>46044.29256944444</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>46044.29564814815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>46043.53034722222</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>46043.47976851852</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>44806</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>45224</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>46043.71197916667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>46043.71537037037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>46043.73894675926</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>46043</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>46043</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>45755.47313657407</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>46000.43576388889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45183.87577546296</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>46043.50650462963</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26147,7 +26147,7 @@
         <v>46043.58969907407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>46043.72383101852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>46048.34472222222</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>46003.29640046296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>46045.58934027778</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>46045.58835648148</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         <v>46048.42853009259</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26561,7 +26561,7 @@
         <v>46045.44604166667</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26623,7 +26623,7 @@
         <v>46045.53561342593</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         <v>46048.33707175926</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26742,7 +26742,7 @@
         <v>46006.60688657407</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45761</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26856,7 +26856,7 @@
         <v>45688.36620370371</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26918,7 +26918,7 @@
         <v>45685.61706018518</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         <v>46049.50449074074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>44586</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>46050.318125</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>46008.61575231481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44621</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>46049.31769675926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>46050.66363425926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>45153.5044212963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27431,7 +27431,7 @@
         <v>45224</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44777.62895833333</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45113.48548611111</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>45204</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45707.28776620371</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45168</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>46010.67361111111</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>45715</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>46056.34627314815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27959,7 +27959,7 @@
         <v>46056.37072916667</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28016,7 +28016,7 @@
         <v>46055.60255787037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         <v>46056.32792824074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28135,7 +28135,7 @@
         <v>45665.53457175926</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45665.54818287037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28249,7 +28249,7 @@
         <v>46056.32425925926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         <v>46056.35708333334</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28363,7 +28363,7 @@
         <v>44817.38878472222</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28420,7 +28420,7 @@
         <v>46055.64608796296</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>46055.46429398148</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28544,7 +28544,7 @@
         <v>44721</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28601,7 +28601,7 @@
         <v>44721</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28658,7 +28658,7 @@
         <v>44735.66302083333</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28715,7 +28715,7 @@
         <v>45225</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28772,7 +28772,7 @@
         <v>44806</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>45695.58439814814</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28886,7 +28886,7 @@
         <v>45229</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45229</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>45727.41440972222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29057,7 +29057,7 @@
         <v>45468</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29114,7 +29114,7 @@
         <v>45296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29171,7 +29171,7 @@
         <v>44767</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29228,7 +29228,7 @@
         <v>45217</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29285,7 +29285,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29342,7 +29342,7 @@
         <v>44938.39666666667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29399,7 +29399,7 @@
         <v>45323</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29456,7 +29456,7 @@
         <v>44851</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29513,7 +29513,7 @@
         <v>46066.60547453703</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29570,7 +29570,7 @@
         <v>45761.67773148148</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29627,7 +29627,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29684,7 +29684,7 @@
         <v>46070.57508101852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         <v>46029.59616898148</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29803,7 +29803,7 @@
         <v>46056</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29860,7 +29860,7 @@
         <v>45296</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29917,7 +29917,7 @@
         <v>45736.59162037037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29974,7 +29974,7 @@
         <v>46076.43719907408</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30036,7 +30036,7 @@
         <v>44784</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30093,7 +30093,7 @@
         <v>46034</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         <v>45047</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30207,7 +30207,7 @@
         <v>46034.33706018519</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30264,7 +30264,7 @@
         <v>46035.45820601852</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30321,7 +30321,7 @@
         <v>44629</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30378,7 +30378,7 @@
         <v>45362.50371527778</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30440,7 +30440,7 @@
         <v>44791</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30497,7 +30497,7 @@
         <v>44517</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30554,7 +30554,7 @@
         <v>46035.40722222222</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30611,7 +30611,7 @@
         <v>44938.46847222222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30668,7 +30668,7 @@
         <v>46035.44307870371</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30725,7 +30725,7 @@
         <v>44897.43328703703</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30782,7 +30782,7 @@
         <v>44582.54878472222</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30839,7 +30839,7 @@
         <v>44745</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30896,7 +30896,7 @@
         <v>44967</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30953,7 +30953,7 @@
         <v>46035.6759375</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31010,7 +31010,7 @@
         <v>45036.49065972222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31067,7 +31067,7 @@
         <v>44622.48778935185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31124,7 +31124,7 @@
         <v>45182</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31181,7 +31181,7 @@
         <v>45169.58528935185</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31238,7 +31238,7 @@
         <v>44618.86863425926</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31295,7 +31295,7 @@
         <v>44917</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44964.8993287037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31409,7 +31409,7 @@
         <v>44777</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31466,7 +31466,7 @@
         <v>44390</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31523,7 +31523,7 @@
         <v>44972</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31580,7 +31580,7 @@
         <v>45461</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         <v>45112</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         <v>44847</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31761,7 +31761,7 @@
         <v>45477</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31818,7 +31818,7 @@
         <v>44392</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31875,7 +31875,7 @@
         <v>44812.23584490741</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31932,7 +31932,7 @@
         <v>45440.66633101852</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31989,7 +31989,7 @@
         <v>44881.3762037037</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32046,7 +32046,7 @@
         <v>44965</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32103,7 +32103,7 @@
         <v>45259.64954861111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32160,7 +32160,7 @@
         <v>45259</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32217,7 +32217,7 @@
         <v>44546</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32279,7 +32279,7 @@
         <v>44949</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>44902.49914351852</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45734.62297453704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>44494</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45316.81165509259</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45077.77979166667</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45184</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32683,7 +32683,7 @@
         <v>45747.64530092593</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>44902.50083333333</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>45548.50846064815</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>45665.5291087963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45763.66409722222</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45761.67010416667</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45243</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45058</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33144,7 +33144,7 @@
         <v>45671.35634259259</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33201,7 +33201,7 @@
         <v>44327</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>45348.42409722223</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>45187</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33382,7 +33382,7 @@
         <v>45022</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33439,7 +33439,7 @@
         <v>45308</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>45664.36682870371</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>45664.38144675926</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33610,7 +33610,7 @@
         <v>45042</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>45747.48892361111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33724,7 +33724,7 @@
         <v>45072</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33781,7 +33781,7 @@
         <v>45720.44211805556</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33838,7 +33838,7 @@
         <v>44991</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44833.62730324074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>45566.53746527778</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34014,7 +34014,7 @@
         <v>44831.31862268518</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34071,7 +34071,7 @@
         <v>44938</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34128,7 +34128,7 @@
         <v>45183.84976851852</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45097</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34242,7 +34242,7 @@
         <v>44973</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34299,7 +34299,7 @@
         <v>45098</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>45098</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34413,7 +34413,7 @@
         <v>45176.51664351852</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34470,7 +34470,7 @@
         <v>45205</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>44942</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45323</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45104</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34703,7 +34703,7 @@
         <v>45222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34760,7 +34760,7 @@
         <v>45601.38733796297</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45224.32313657407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>45433</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45665.39953703704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34988,7 +34988,7 @@
         <v>45713.68298611111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35045,7 +35045,7 @@
         <v>45217</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35102,7 +35102,7 @@
         <v>45707.2930787037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35159,7 +35159,7 @@
         <v>45776.31901620371</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35216,7 +35216,7 @@
         <v>45776.31081018518</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35273,7 +35273,7 @@
         <v>45784.33703703704</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35330,7 +35330,7 @@
         <v>45784.32862268519</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35387,7 +35387,7 @@
         <v>45308.75856481482</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35444,7 +35444,7 @@
         <v>45796.57399305556</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35501,7 +35501,7 @@
         <v>45796.40332175926</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35558,7 +35558,7 @@
         <v>45671.6171875</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35615,7 +35615,7 @@
         <v>45796.65553240741</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35672,7 +35672,7 @@
         <v>45796.67018518518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45799.86152777778</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>45800.68248842593</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
